--- a/Datos_Evaluacion_Docente_cleaned.xlsx
+++ b/Datos_Evaluacion_Docente_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T343"/>
+  <dimension ref="A1:W343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>codigo materia</t>
+          <t>codigo_materia</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cedula profesor</t>
+          <t>cedula_profesor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,62 +466,52 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [1. El profesor exhibió un manejo apropiado del conocimiento objeto de estudio del curso.][Calificación numérica]</t>
+          <t>pregunta_1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [2. La manera como el profesor orientó el curso procuraba promover la evolución de su conocimiento respecto de las temáticas del curso.][Calificación numérica]</t>
+          <t>pregunta_2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [3. La manera como el profesor orientó el curso procuraba promover el desarrollo de sus actitudes como estudiante y futuro docente.][Calificación numérica]</t>
+          <t>pregunta_3</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [4. La actividad docente del profesor constituyó para usted un ejemplo a seguir como profesional de la educación.][Calificación numérica]</t>
+          <t>pregunta_4</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [5. El profesor estableció de manera explícita y oportuna las temáticas, la estrategia metodológica y las reglas de interacción y evaluación del curso.][Calificación numérica]</t>
+          <t>pregunta_5</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [6. El conjunto de evaluaciones propuestas por el profesor abarcó el panorama temático propuesto en el programa del curso.][Calificación numérica]</t>
+          <t>pregunta_6</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [7. El profesor hizo uso de los resultados de la actividad académica de los estudiantes y sus evaluaciones, para reorientar los procesos de enseñanza-aprendizaje.][Calificación numérica]</t>
+          <t>pregunta_7</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [8. El profesor hizo devolución oportuna de las evaluaciones realizadas y éstas retroalimentaron su proceso de aprendizaje.][Calificación numérica]</t>
+          <t>pregunta_8</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [9. El profesor desarrolló las clases programadas y asistió puntualmente a ellas.][Calificación numérica]</t>
+          <t>pregunta_9</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>A continuación encontrará un listado de diez(10) aspectos relativos a la asesoría. Léalos atentamente y para cada uno de ellos reporte una calificación con números enteros, en una escala de cero (0) a cincuenta (50).
-  [10. El profesor atendió; las sesiones de tutorías (o recuperación). Aunque Usted debe; asignar puntaje a  este aspecto, sólo se tendrá en cuenta para profesores de tiempo completo.][Calificación numérica]</t>
+          <t>pregunta_10</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -541,7 +531,22 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Sugerencias_limpias</t>
+          <t>Sugerencias_lemmatizadas</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>char_len</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>word_count</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>lexical_div</t>
         </is>
       </c>
     </row>
@@ -600,7 +605,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Falta mejorar el tiempo de entrega de notas de los cortes y que no sea tan brusca al decir las cosas </t>
+          <t>Falta mejorar el tiempo de entrega de notas de los cortes y que no sea tan brusca al decir las cosas</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -613,8 +618,17 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>faltar mejorar tiempo entrega nota corte brusca cosa</t>
-        </is>
+          <t>faltar mejorar el tiempo de entrega de nota de el corte y que no ser tanto brusco al decir el cosa</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>100</v>
+      </c>
+      <c r="V2" t="n">
+        <v>21</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="3">
@@ -672,7 +686,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente, en lo personal de las mejores docentes que tiene la universidad </t>
+          <t>Excelente docente, en lo personal de las mejores docentes que tiene la universidad</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -685,8 +699,17 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>excelente docente personal mejor docente universidad</t>
-        </is>
+          <t>excelente docente en él personal de el mejor docente que tener el universidad</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>82</v>
+      </c>
+      <c r="V3" t="n">
+        <v>13</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="4">
@@ -757,8 +780,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>docente generar pasion organizar tiempo entrega trabajo dejar momento resolver duda taller soler altanero iniciar sesion</t>
-        </is>
+          <t>el docente no generar pasión no organizar su tiempo para el entrega de trabajo dejar todo para último momento no resolver alguno duda sobre el taller y alguno vez soler ser uno tanto altanero al iniciar el sesión</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>224</v>
+      </c>
+      <c r="V4" t="n">
+        <v>38</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +848,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Recalcó el en gran conocimiento y muy buen manejo sobré los temas dados en el semestre, agradezco tener el privilegio de contar con una muy buena docente  para formar mi futuro</t>
+          <t>Recalcó el en gran conocimiento y muy buen manejo sobré los temas dados en el semestre, agradezco tener el privilegio de contar con una muy buena docente para formar mi futuro</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -829,8 +861,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>recalco conocimiento manejo tema dado semestre agradecer privilegio contar docente formar futuro</t>
-        </is>
+          <t>recalcar el en gran conocimiento y mucho buen manejo sobré el tema dado en el semestre agradecer tener el privilegio de contar con uno mucho buen docente para formar mi futuro</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>175</v>
+      </c>
+      <c r="V5" t="n">
+        <v>31</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="6">
@@ -904,6 +945,15 @@
           <t>excelente profe</t>
         </is>
       </c>
+      <c r="U6" t="n">
+        <v>15</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -973,8 +1023,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>inicio semestre grar clase normalidad problema grupo dejo actitud delicado desmotivo estudiante comentario hirient</t>
-        </is>
+          <t>al inicio del semestre él grar el clase con normalidad sin embargo por uno problema con uno grupo que no ser el nuestro dejar de hacer él y su actitud ser menos delicado y desmotiir a su estudiante a con su comentario uno tanto hirient</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>243</v>
+      </c>
+      <c r="V7" t="n">
+        <v>44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.7555555555555555</v>
       </c>
     </row>
     <row r="8">
@@ -1045,8 +1104,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>empatico considerar llegar base semestre</t>
-        </is>
+          <t>ser más empático considerar que no todo llegar con el mismo base a primero semestre</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>90</v>
+      </c>
+      <c r="V8" t="n">
+        <v>15</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1117,8 +1185,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>gusto programa aprendi unico gustariar practico didactico facilitar apropiacion concepto trabajo entregar fecha oportuno semestre</t>
-        </is>
+          <t>yo gustar mucho el programa aprender bastante él único que yo gustar ser que ser mas practico o didáctico para facilitar el apropiación de el concepto y que el trabajo él entregar en fecha oportuno no al final del semestre</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>234</v>
+      </c>
+      <c r="V9" t="n">
+        <v>41</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.775</v>
       </c>
     </row>
     <row r="10">
@@ -1187,7 +1264,20 @@
       <c r="S10" t="n">
         <v>50</v>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1257,8 +1347,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>duda clase interesante falencia proceso individual estudiante llegar base consecuencia ver proceso afectado rendimiento entender</t>
-        </is>
+          <t>sin duda uno clase interesante pero con alguno falencia en cuanto al proceso individual de cada estudiante pues no todo llegar con el mismo base y como consecuencia ver mi proceso afectado en cuanto a mi rendimiento al no entender todo</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>243</v>
+      </c>
+      <c r="V11" t="n">
+        <v>41</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.8048780487804879</v>
       </c>
     </row>
     <row r="12">
@@ -1329,8 +1428,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>retroalimentacion nota fecha lejos</t>
-        </is>
+          <t>retroalimentación de nota con fecha mucho lejos</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>47</v>
+      </c>
+      <c r="V12" t="n">
+        <v>7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1388,7 +1496,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hizo falta tutorías para mejor comprensión  y aprendizaje de los temas, ya que unos se nos dificulta y tampoco veníamos con buenas bases y conocimientos. </t>
+          <t>Hizo falta tutorías para mejor comprensión y aprendizaje de los temas, ya que unos se nos dificulta y tampoco veníamos con buenas bases y conocimientos.</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1401,8 +1509,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>falta tutoria comprension aprendizaje tema dificultar veniamos base conocimiento</t>
-        </is>
+          <t>hacer falta tutoría para mejor comprensión y aprendizaje de el tema ya que uno él yo dificultar y tampoco veníar con buena base y conocimiento</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>152</v>
+      </c>
+      <c r="V13" t="n">
+        <v>25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="14">
@@ -1460,7 +1577,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t xml:space="preserve">No realizo retroalimentación de los parciales y no dio a conocer las notas de los cohortes a tiempo. </t>
+          <t>No realizo retroalimentación de los parciales y no dio a conocer las notas de los cohortes a tiempo.</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1473,8 +1590,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>realacer retroalimentacion parcial nota cohorte tiempo</t>
-        </is>
+          <t>no realacer retroalimentación de el parcial y no dar a conocer el nota de el cohorte a tiempo</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>100</v>
+      </c>
+      <c r="V14" t="n">
+        <v>18</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="15">
@@ -1545,8 +1671,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>exigente labor dedicacion buscar ser mejor herramienta aprendizaje</t>
-        </is>
+          <t>mucho exigente en su labor buen dedicación siempre buscar que ser mejor con buena herramienta de aprendizaje</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>118</v>
+      </c>
+      <c r="V15" t="n">
+        <v>17</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1615,7 +1750,20 @@
       <c r="S16" t="n">
         <v>48.9</v>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1685,8 +1833,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>excelente directora trabajo grado</t>
-        </is>
+          <t>excelente directora de trabajo de grado</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>40</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="18">
@@ -1744,7 +1901,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente, integral y muy comprometida. </t>
+          <t>Excelente docente, integral y muy comprometida.</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1757,8 +1914,17 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>excelente docente integral comprometido</t>
-        </is>
+          <t>excelente docente integral y mucho comprometido</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>47</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1829,8 +1995,17 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>profesor</t>
-        </is>
+          <t>mucho buen profesor</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>17</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1901,8 +2076,17 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>excelente docente actitud comprensivo</t>
-        </is>
+          <t>excelente docente gran actitud y mucho comprensivo</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>49</v>
+      </c>
+      <c r="V20" t="n">
+        <v>7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1973,8 +2157,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>profesor</t>
-        </is>
+          <t>mucho buen profesor</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>19</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2048,6 +2241,15 @@
           <t>excelente profe</t>
         </is>
       </c>
+      <c r="U22" t="n">
+        <v>15</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2117,8 +2319,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>profe filosofia lugar duda</t>
-        </is>
+          <t>el mejor profe de filosofia sin lugar a dudas</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>45</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2189,8 +2400,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>metodo ensenanza optimo entender tematica clase facil entender él docente clase dinamicar entretenidar continuar mejorar</t>
-        </is>
+          <t>el método de enseñanza ser el más optimo para entender el tematica de el clase ser fácil entender él al docente hacer que el clase ser dinámico y entretenido continuar mejorar cada vez más</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>192</v>
+      </c>
+      <c r="V24" t="n">
+        <v>33</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="25">
@@ -2248,7 +2468,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un docente genial toma en cuenta todas las dificultades de los estudiantes </t>
+          <t>Un docente genial toma en cuenta todas las dificultades de los estudiantes</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2261,8 +2481,17 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>docente genial toma dificultad estudiante</t>
-        </is>
+          <t>uno docente genial tomar en cuenta todo el dificultad de el estudiante</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>74</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -2320,7 +2549,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente curso de filosofía aplicado a la carrera. </t>
+          <t>Excelente curso de filosofía aplicado a la carrera.</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2333,8 +2562,17 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>excelente curso filosofia aplicado carrera</t>
-        </is>
+          <t>excelente curso de filosofía aplicado a el carrera</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>51</v>
+      </c>
+      <c r="V26" t="n">
+        <v>8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2405,8 +2643,17 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>gustar pasar espacio academico docente motiva inspirar docente</t>
-        </is>
+          <t>yo gustar pasar por el espacio académico ya que el docente motivar e inspirar a ser docente</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>88</v>
+      </c>
+      <c r="V27" t="n">
+        <v>17</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="28">
@@ -2464,7 +2711,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se entiende las clases, son dinámicas y siempre hacías algo nuevo en clase </t>
+          <t>Se entiende las clases, son dinámicas y siempre hacías algo nuevo en clase</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2477,8 +2724,17 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>entender clase dinamica hacia clase</t>
-        </is>
+          <t>él entender el clase ser dinámico y siempre hacías algo nuevo en clase</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>74</v>
+      </c>
+      <c r="V28" t="n">
+        <v>13</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="29">
@@ -2549,8 +2805,17 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>docente dinamicar ordenado amoroso generar seguridad iniciar clase</t>
-        </is>
+          <t>el docente ser mucho dinámico ordenado amoroso y generar seguridad al iniciar uno clase</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>86</v>
+      </c>
+      <c r="V29" t="n">
+        <v>14</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2621,8 +2886,17 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>motivar estudiante seguir proceso academico docente</t>
-        </is>
+          <t>motivar a el estudiante a seguir su proceso académico mucho buen docente</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>76</v>
+      </c>
+      <c r="V30" t="n">
+        <v>12</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="31">
@@ -2680,7 +2954,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Me gusto mucho el espacio académico , aprendí con claridad todas las temáticas que me servirán para toda la carrera.   </t>
+          <t>Me gusto mucho el espacio académico , aprendí con claridad todas las temáticas que me servirán para toda la carrera.</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -2693,8 +2967,17 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>gusto espacio academico aprendi claridad tematica servirar carrera</t>
-        </is>
+          <t>yo gustar mucho el espacio académico aprender con claridad todo el temática que yo servir para todo el carrera</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>116</v>
+      </c>
+      <c r="V31" t="n">
+        <v>20</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="32">
@@ -2763,7 +3046,20 @@
       <c r="S32" t="n">
         <v>50</v>
       </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>7</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2833,8 +3129,17 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>encantar ludico metodologia ensenanza tratado maestra deisy espacio clase ameno agradable</t>
-        </is>
+          <t>yo encantar el lúdica y metodología de enseñanza tratado por el maestra deisy y el espacio de clase mucho ameno y agradable</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>120</v>
+      </c>
+      <c r="V33" t="n">
+        <v>22</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7727272727272727</v>
       </c>
     </row>
     <row r="34">
@@ -2905,8 +3210,17 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>docente</t>
-        </is>
+          <t>mucho buen docente</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>18</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2964,7 +3278,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Excelente maestra, su colaboración y amabilidad así mismo si exigencia en el ámbito laboral  y excelente presentación y dedicación</t>
+          <t>Excelente maestra, su colaboración y amabilidad así mismo si exigencia en el ámbito laboral y excelente presentación y dedicación</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2977,8 +3291,17 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>excelente maestra colaboracion amabilidad exigenciar ambito laboral excelente presentacion dedicacion</t>
-        </is>
+          <t>excelente maestra su colaboración y amabilidad así mismo si exigencia en el ámbito laboral y excelente presentación y dedicación</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>129</v>
+      </c>
+      <c r="V35" t="n">
+        <v>19</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="36">
@@ -3047,7 +3370,20 @@
       <c r="S36" t="n">
         <v>49.5</v>
       </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>7</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3117,8 +3453,17 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>explicar desarrollar tema facil aprender profesora</t>
-        </is>
+          <t>explica y desarrollar el tema de manera facil de aprender mucho buen profesora</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>80</v>
+      </c>
+      <c r="V37" t="n">
+        <v>13</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="38">
@@ -3176,7 +3521,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente maestra </t>
+          <t>Excelente maestra</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3191,6 +3536,15 @@
         <is>
           <t>excelente maestra</t>
         </is>
+      </c>
+      <c r="U38" t="n">
+        <v>17</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3264,6 +3618,15 @@
           <t>bienn</t>
         </is>
       </c>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3336,6 +3699,15 @@
           <t>excelente profe</t>
         </is>
       </c>
+      <c r="U40" t="n">
+        <v>15</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3392,7 +3764,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necesita mayor interacción con los estudiantes. </t>
+          <t>Se necesita mayor interacción con los estudiantes.</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3405,8 +3777,17 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>necesitar interaccion estudiante</t>
-        </is>
+          <t>él necesitar mayor interacción con el estudiante</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>50</v>
+      </c>
+      <c r="V41" t="n">
+        <v>7</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3464,12 +3845,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se evalúan temas que no han sido abordados </t>
+          <t>Se evalúan temas que no han sido abordados</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="S42" t="n">
@@ -3477,8 +3858,17 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>evaluan tema abordar</t>
-        </is>
+          <t>él evaluar tema que no haber ser abordar</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>42</v>
+      </c>
+      <c r="V42" t="n">
+        <v>8</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3549,8 +3939,17 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>profe tkm cambiar forma dulce energico dictar materia</t>
-        </is>
+          <t>profe tkm nunca cambiar ese forma tanto dulce y energica de dictar su materia</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>78</v>
+      </c>
+      <c r="V43" t="n">
+        <v>15</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3621,8 +4020,17 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>organizar estudiante tema nota porcentaje</t>
-        </is>
+          <t>organizar mas con su estudiante el tema de nota y porcentaje</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>64</v>
+      </c>
+      <c r="V44" t="n">
+        <v>11</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3693,8 +4101,17 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>profesora</t>
-        </is>
+          <t>mucho buen profesora</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>19</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3752,7 +4169,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muy buena profesora </t>
+          <t>Muy buena profesora</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -3765,8 +4182,17 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>profesora</t>
-        </is>
+          <t>mucho buen profesora</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>19</v>
+      </c>
+      <c r="V46" t="n">
+        <v>3</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3824,7 +4250,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t xml:space="preserve">La profesora Yessica, tiene muy claros los temas y sabe enseñarlos de manera sencilla y dinámica. Asimismo, deja talleres para corroborar lo aprendido, sin embargo, es necesario hacer la retroalimentación de los parciales que reliza. </t>
+          <t>La profesora Yessica, tiene muy claros los temas y sabe enseñarlos de manera sencilla y dinámica. Asimismo, deja talleres para corroborar lo aprendido, sin embargo, es necesario hacer la retroalimentación de los parciales que reliza.</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -3837,8 +4263,17 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>profesora yessico claro tema ensenarlo sencillo dinamicar asimismo dejar taller corroborar aprendido necesario retroalimentacion parcial relizar</t>
-        </is>
+          <t>el profesora yessica tener mucho claro el tema y saber enseñar él de manera sencillo y dinámico asimismo dejar taller para corroborar él aprendido sin embargo ser necesario hacer el retroalimentación de el parcial que relizar</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>233</v>
+      </c>
+      <c r="V47" t="n">
+        <v>35</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="48">
@@ -3896,7 +4331,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Todo correcto, muy ordenada con sus cosas, la profe Yessica sorprende muy pila y amable. </t>
+          <t>Todo correcto, muy ordenada con sus cosas, la profe Yessica sorprende muy pila y amable.</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -3909,8 +4344,17 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>correcto ordenado cosa profe yessico sorprender pila amable</t>
-        </is>
+          <t>todo correcto mucho ordenado con su cosa el profe yessica sorprender mucho pila y amable</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>88</v>
+      </c>
+      <c r="V48" t="n">
+        <v>15</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -3968,7 +4412,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente </t>
+          <t>Excelente docente</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -3983,6 +4427,15 @@
         <is>
           <t>excelente docente</t>
         </is>
+      </c>
+      <c r="U49" t="n">
+        <v>17</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4053,8 +4506,17 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>encantar materia profesional hora ensenarno entender motivo seguir investigacion ciencia</t>
-        </is>
+          <t>yo encantar este materia él ser mucho profesional a el hora de enseñar yo él él entender y yo motivo para seguir en el investigación de el ciencia</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>146</v>
+      </c>
+      <c r="V50" t="n">
+        <v>27</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="51">
@@ -4125,8 +4587,17 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>docente dadactico actividad laboratorio organizado puntual</t>
-        </is>
+          <t>el docente ser mucho dadáctico con cada actividad y laboratorio ser organizar y mucho puntual</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>90</v>
+      </c>
+      <c r="V51" t="n">
+        <v>15</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="52">
@@ -4197,8 +4668,17 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>excelente creatividad dinamismo clase</t>
-        </is>
+          <t>excelente creatividad y dinamismo en el clase</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>47</v>
+      </c>
+      <c r="V52" t="n">
+        <v>7</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4256,7 +4736,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Continuar mejorando cada vez más el método de enseñanza. </t>
+          <t>Continuar mejorando cada vez más el método de enseñanza.</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -4269,8 +4749,17 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>continuar mejorar metodo ensenanza</t>
-        </is>
+          <t>continuar mejorar cada vez más el método de enseñanza</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>56</v>
+      </c>
+      <c r="V53" t="n">
+        <v>9</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4328,7 +4817,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las explicaciones muy claras buen desarrollo para el curso </t>
+          <t>Las explicaciones muy claras buen desarrollo para el curso</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -4341,8 +4830,17 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>explicación claro desarrollo curso</t>
-        </is>
+          <t>el explicación mucho claro buen desarrollo para el curso</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>58</v>
+      </c>
+      <c r="V54" t="n">
+        <v>9</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="55">
@@ -4411,7 +4909,20 @@
       <c r="S55" t="n">
         <v>47.3</v>
       </c>
-      <c r="T55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>7</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4468,7 +4979,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t xml:space="preserve">dar a conocer las notas y grabar todas las clases </t>
+          <t>dar a conocer las notas y grabar todas las clases</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -4481,8 +4992,17 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>nota grabar clase</t>
-        </is>
+          <t>dar a conocer el nota y grabar todo el clase</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>49</v>
+      </c>
+      <c r="V56" t="n">
+        <v>10</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="57">
@@ -4553,8 +5073,17 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>general retroalimentacion tarea tardio afectar nota corte</t>
-        </is>
+          <t>en general estar bien pero el retroalimentación de el tarea ser mucho tardío y afectar en el saber el nota del corte</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>121</v>
+      </c>
+      <c r="V57" t="n">
+        <v>22</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="58">
@@ -4625,8 +5154,17 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>claro hora explicar tematica</t>
-        </is>
+          <t>ser uno poco más claro el hora de explicar el temática</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>55</v>
+      </c>
+      <c r="V58" t="n">
+        <v>11</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="59">
@@ -4695,7 +5233,20 @@
       <c r="S59" t="n">
         <v>47.4</v>
       </c>
-      <c r="T59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>7</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4765,8 +5316,17 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>clase gustar metodologia ensananza profesora lín bonito actitud explicar profundidad detener él duda referente tema tratado</t>
-        </is>
+          <t>uno clase que yo gustar bastante el metodologia de ensañanza de el profesora lina siempre con uno bonito actitud explicar a profundidad detener él siempre si existir alguno duda referente al tema tratado</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>207</v>
+      </c>
+      <c r="V60" t="n">
+        <v>32</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="61">
@@ -4837,8 +5397,17 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>metodologia ensenanza</t>
-        </is>
+          <t>tener mucho buena metodología de enseñanza</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>42</v>
+      </c>
+      <c r="V61" t="n">
+        <v>6</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4909,8 +5478,17 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>clase aburrido sentir aprendar forma ensenanza red etc aburrido materia razon</t>
-        </is>
+          <t>ser uno clase mucho aburrido dónde no sentir que él aprender de forma de enseñanza por medio de el red o etc ser mucho aburrido y parecer uno materia sin razón</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>153</v>
+      </c>
+      <c r="V62" t="n">
+        <v>31</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="63">
@@ -4968,7 +5546,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Debería tener en cuenta que no todos los estudiantes traemos los mismo conocimientos ni las mismas bases, esto hace que no todos entiendan al mismo ritmo CONSIDERO QUE SE DEBERIA TENER MUY EN CUENTA  PARA HACER MEJOR LA COMPRENSION DE LOS TEMAS </t>
+          <t>Debería tener en cuenta que no todos los estudiantes traemos los mismo conocimientos ni las mismas bases, esto hace que no todos entiendan al mismo ritmo CONSIDERO QUE SE DEBERIA TENER MUY EN CUENTA PARA HACER MEJOR LA COMPRENSION DE LOS TEMAS</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -4981,8 +5559,17 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>deberio estudiante traemos conocimiento base entender ritmo considero deberiar comprension tema</t>
-        </is>
+          <t>deber tener en cuenta que no todo el estudiante traer el mismo conocimiento ni el mismo base este hacer que no todo entender al mismo ritmo considero que él deberiar tener mucho en cuenta para hacer mejor el comprension de el temas</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>243</v>
+      </c>
+      <c r="V63" t="n">
+        <v>42</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="64">
@@ -5053,8 +5640,17 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>entrega nota generalmente inoportún entrega tiempo</t>
-        </is>
+          <t>el entrega de nota generalmente ser inoportún casi nunca el entrega a tiempo</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>80</v>
+      </c>
+      <c r="V64" t="n">
+        <v>13</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="65">
@@ -5112,7 +5708,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muy buena profesora </t>
+          <t>Muy buena profesora</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -5125,8 +5721,17 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>profesora</t>
-        </is>
+          <t>mucho buen profesora</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>19</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -5197,8 +5802,17 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>metodologia ensenar</t>
-        </is>
+          <t>mucho buena metodología para enseñar</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>36</v>
+      </c>
+      <c r="V66" t="n">
+        <v>5</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -5269,8 +5883,17 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>necesario tiempo forma correcto administrar tiempo sentir aprovechar correr necesidad recomeir organizado momento exponer diapositiva</t>
-        </is>
+          <t>ser necesario hacer uso del tiempo de forma correcto deber administrar mejor el tiempo ya que sentir que no él aprovechar de el mejor manera y él tener que correr sin necesidad recomendar ser más organizado al momento de exponer en su diapositiva</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>247</v>
+      </c>
+      <c r="V67" t="n">
+        <v>43</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.7906976744186046</v>
       </c>
     </row>
     <row r="68">
@@ -5341,8 +5964,17 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>excelente clase trabajo credito util aprendido</t>
-        </is>
+          <t>excelente clase mucho trabajo para dos crédito sin embargo mucho útil él aprendido</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>84</v>
+      </c>
+      <c r="V68" t="n">
+        <v>13</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="69">
@@ -5400,7 +6032,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente maestra, le gusta lo que hace, ha hecho mi vida mas divertida en la universidad. </t>
+          <t>Excelente maestra, le gusta lo que hace, ha hecho mi vida mas divertida en la universidad.</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -5413,8 +6045,17 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>excelente maestra gustar vida divertido universidad</t>
-        </is>
+          <t>excelente maestra él gustar él que hacer haber hacer mi vida mas divertido en el universidad</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>90</v>
+      </c>
+      <c r="V69" t="n">
+        <v>16</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="70">
@@ -5485,8 +6126,17 @@
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>maestra</t>
-        </is>
+          <t>buen maestra</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>16</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -5544,7 +6194,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Que podamos evidenciar nuestras notas de cada corte para asi ver nuestro proceso en las actividades establecidas en clase y también crear nuevas estrategias de aprendizaje con el fin de que los estudiantes tengan mayor interes por aprender. </t>
+          <t>Que podamos evidenciar nuestras notas de cada corte para asi ver nuestro proceso en las actividades establecidas en clase y también crear nuevas estrategias de aprendizaje con el fin de que los estudiantes tengan mayor interes por aprender.</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -5557,8 +6207,17 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>poder evidenciar nota corte proceso actividad establecido clase crear estrategia aprendizaje estudiante tener inter aprender</t>
-        </is>
+          <t>que poder evidenciar nuestro nota de cada corte para asi ver nuestro proceso en el actividad establecido en clase y también crear nuevo estrategia de aprendizaje con el fin de que el estudiante tener mayor inter por aprender</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>240</v>
+      </c>
+      <c r="V71" t="n">
+        <v>38</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="72">
@@ -5616,7 +6275,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente de química, he aprendido muchas temáticas, me ha reforzado aquellos conocimientos que no los tenia claros. Continuar mejorando cada vez más el método de enseñanza. Motiva al estudiante a ser un gran profesional.  </t>
+          <t>Excelente docente de química, he aprendido muchas temáticas, me ha reforzado aquellos conocimientos que no los tenia claros. Continuar mejorando cada vez más el método de enseñanza. Motiva al estudiante a ser un gran profesional.</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -5629,8 +6288,17 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>excelente docente quimica aprender tematica reforzar conocimiento tenia claro continuar mejorar metodo ensenanza motivo estudiante profesional</t>
-        </is>
+          <t>excelente docente de química haber aprender mucho temática yo haber reforzar aquel conocimiento que no él tenia claro continuar mejorar cada vez más el método de enseñanza motivar al estudiante a ser uno gran profesional</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>229</v>
+      </c>
+      <c r="V72" t="n">
+        <v>35</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.9428571428571428</v>
       </c>
     </row>
     <row r="73">
@@ -5701,8 +6369,17 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>trabajo materia credito</t>
-        </is>
+          <t>mucho trabajo para uno materia de tanto poco crédito</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>52</v>
+      </c>
+      <c r="V73" t="n">
+        <v>9</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -5773,8 +6450,17 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>tiempo plan estudio tematica importante docente esfuerzo lastimo universidad parecer importar formacion informatico futuro docente</t>
-        </is>
+          <t>mucho poco tiempo en el plan de estudio para este tematica tanto importante el docente hacer su mayor esfuerzo lastimar que el universidad al parecer no él importar el formacion informatico para futuro docente</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>207</v>
+      </c>
+      <c r="V74" t="n">
+        <v>34</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.8529411764705882</v>
       </c>
     </row>
     <row r="75">
@@ -5832,7 +6518,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Por favor reconsiderar la metodología para orientar la asignatura.No es posible que siendo una de las asignaturas para terminar carrera,sea tan grande  tortura y martirio hast el punto qu pocos desean verla o abandonan. Opinión mia y d muchs compañer</t>
+          <t>Por favor reconsiderar la metodología para orientar la asignatura.No es posible que siendo una de las asignaturas para terminar carrera,sea tan grande tortura y martirio hast el punto qu pocos desean verla o abandonan. Opinión mia y d muchs compañer</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -5845,8 +6531,17 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>favor reconsiderar metodologia orientar asignaturano asignatura terminar carrerasea tortura martirio hast punto qu desear ver él abandonar opinion d muchs companer</t>
-        </is>
+          <t>por favor reconsiderar el metodología para orientar el asignatura no ser posible que ser uno de el asignatura para terminar carrera ser tanto grande tortura y martirio hast el punto qu poco desear ver él o abandonar opinión mia y d muchs compañer</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>249</v>
+      </c>
+      <c r="V75" t="n">
+        <v>40</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.813953488372093</v>
       </c>
     </row>
     <row r="76">
@@ -5917,8 +6612,17 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>tematica expuesto dictar</t>
-        </is>
+          <t>el temática expuesto él dictar mas despacio</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>46</v>
+      </c>
+      <c r="V76" t="n">
+        <v>7</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -5989,8 +6693,17 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>apoyo doctora yolanda ladino ospina</t>
-        </is>
+          <t>apoyo de el doctora yolanda ladino ospina</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>41</v>
+      </c>
+      <c r="V77" t="n">
+        <v>7</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -6048,7 +6761,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Buen profe </t>
+          <t>Buen profe</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -6061,8 +6774,17 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>profe</t>
-        </is>
+          <t>buen profe</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>10</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6120,7 +6842,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es el profesor más decente que he tenido en un largo tiempo, es organizado, cumplido y se nota la apropiación de todos los temas </t>
+          <t>Es el profesor más decente que he tenido en un largo tiempo, es organizado, cumplido y se nota la apropiación de todos los temas</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -6133,8 +6855,17 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>profesor decente tiempo organizar cumplido notar apropiacion tema</t>
-        </is>
+          <t>ser el profesor más decente que haber tener en uno largo tiempo ser organizado cumplido y él notar el apropiación de todo el tema</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>128</v>
+      </c>
+      <c r="V79" t="n">
+        <v>24</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="80">
@@ -6192,7 +6923,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t xml:space="preserve">La arrogancia es mejor dejarla fuera del aula. </t>
+          <t>La arrogancia es mejor dejarla fuera del aula.</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -6205,8 +6936,17 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>arrogancia dejar él aula</t>
-        </is>
+          <t>el arrogancia ser mejor dejar él fuera del aula</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>46</v>
+      </c>
+      <c r="V80" t="n">
+        <v>8</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6277,8 +7017,17 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>arrogancia dejar él aula</t>
-        </is>
+          <t>el arrogancia ser mejor dejar él fuera del aula</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>45</v>
+      </c>
+      <c r="V81" t="n">
+        <v>8</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -6336,7 +7085,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gracias profesor Diego por brindarnos un seminario lleno de aprendizajes, pido disculpas por no participar en las sesiones. Gracias por los conocimientos brindados  </t>
+          <t>Gracias profesor Diego por brindarnos un seminario lleno de aprendizajes, pido disculpas por no participar en las sesiones. Gracias por los conocimientos brindados</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -6349,8 +7098,17 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>gracia profesor diego brindar yo seminario lleno aprendizaje pedir disculpa participar sesión gracias conocimiento brindado</t>
-        </is>
+          <t>gracias profesor diego por brindar yo uno seminario lleno de aprendizaje pedir disculpa por no participar en el sesión gracias por el conocimiento brindado</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>163</v>
+      </c>
+      <c r="V82" t="n">
+        <v>23</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="83">
@@ -6408,7 +7166,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se sugiere que considere dar pedagogía y didáctica I y vaya de manera secuencial en esas asignaturas, con la finalidad de que los estudiantes tengan un proceso lineal y una buena base en esas materias, ya que sería de gran ventaja. </t>
+          <t>Se sugiere que considere dar pedagogía y didáctica I y vaya de manera secuencial en esas asignaturas, con la finalidad de que los estudiantes tengan un proceso lineal y una buena base en esas materias, ya que sería de gran ventaja.</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -6421,8 +7179,17 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>sugerir considerar pedagogia didactico i secuencial asignatura finalidad estudiante tener proceso lineal base materia seriar ventaja</t>
-        </is>
+          <t>él sugerir que considerar dar pedagogía y didáctico i y vaya de manera secuencial en ese asignatura con el finalidad de que el estudiante tener uno proceso lineal y uno buen base en ese materia ya que ser de gran ventaja</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>231</v>
+      </c>
+      <c r="V83" t="n">
+        <v>41</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.7560975609756098</v>
       </c>
     </row>
     <row r="84">
@@ -6493,8 +7260,17 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>docente ocasión iniciar minuto clase terminar minuto</t>
-        </is>
+          <t>el docente en alguno ocasión iniciar uno minuto tarde el clase y él terminar varios minuto después</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>106</v>
+      </c>
+      <c r="V84" t="n">
+        <v>17</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="85">
@@ -6563,7 +7339,20 @@
       <c r="S85" t="n">
         <v>49.5</v>
       </c>
-      <c r="T85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>7</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6620,12 +7409,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente profesor </t>
+          <t>Excelente profesor</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="S86" t="n">
@@ -6635,6 +7424,15 @@
         <is>
           <t>excelente profesor</t>
         </is>
+      </c>
+      <c r="U86" t="n">
+        <v>18</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6692,7 +7490,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t xml:space="preserve">El docente sabe del tema al cual esta ligado su seminario, por ende se desarrollo un buen seguimiento de la asignatura. </t>
+          <t>El docente sabe del tema al cual esta ligado su seminario, por ende se desarrollo un buen seguimiento de la asignatura.</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -6705,8 +7503,17 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>docente tema ligado seminario ende desarrollo seguimiento asignatura</t>
-        </is>
+          <t>el docente saber del tema al cual este ligado su seminario por ende él desarrollar uno buen seguimiento de el asignatura</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>119</v>
+      </c>
+      <c r="V87" t="n">
+        <v>21</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="88">
@@ -6764,7 +7571,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t xml:space="preserve">El docente sabe del tema al cual esta ligado su seminario, por ende se desarrollo un buen seguimiento de la asignatura. </t>
+          <t>El docente sabe del tema al cual esta ligado su seminario, por ende se desarrollo un buen seguimiento de la asignatura.</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -6777,8 +7584,17 @@
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>docente tema ligado seminario ende desarrollo seguimiento asignatura</t>
-        </is>
+          <t>el docente saber del tema al cual este ligado su seminario por ende él desarrollar uno buen seguimiento de el asignatura</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>119</v>
+      </c>
+      <c r="V88" t="n">
+        <v>21</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="89">
@@ -6841,7 +7657,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="S89" t="n">
@@ -6851,6 +7667,15 @@
         <is>
           <t>excelente profesor</t>
         </is>
+      </c>
+      <c r="U89" t="n">
+        <v>18</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6908,12 +7733,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Excelente  maestro, me diverti mucho realizando la magiciencia.</t>
+          <t>Excelente maestro, me diverti mucho realizando la magiciencia.</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>it</t>
         </is>
       </c>
       <c r="S90" t="n">
@@ -6921,8 +7746,17 @@
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>excelente maestro diverti realizar magiciencia</t>
-        </is>
+          <t>excelente maestro yo diverti mucho realizar el magiciencia</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>62</v>
+      </c>
+      <c r="V90" t="n">
+        <v>8</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -6985,7 +7819,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="S91" t="n">
@@ -6995,6 +7829,15 @@
         <is>
           <t>excelente profesor</t>
         </is>
+      </c>
+      <c r="U91" t="n">
+        <v>18</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -7052,7 +7895,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente profesor , muy buena su manera de explicar </t>
+          <t>Excelente profesor , muy buena su manera de explicar</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -7065,8 +7908,17 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>excelente profesor explicar</t>
-        </is>
+          <t>excelente profesor mucho buen su manera de explicar</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>52</v>
+      </c>
+      <c r="V92" t="n">
+        <v>9</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -7137,8 +7989,17 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>profesor</t>
-        </is>
+          <t>mucho buen profesor</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>17</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -7209,8 +8070,17 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>excelente docente actitud comprensivo</t>
-        </is>
+          <t>excelente docente gran actitud y mucho comprensivo</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>49</v>
+      </c>
+      <c r="V94" t="n">
+        <v>7</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -7284,6 +8154,15 @@
           <t>excelente profesor</t>
         </is>
       </c>
+      <c r="U95" t="n">
+        <v>18</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7353,8 +8232,17 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>necesitar profesor profe gana estudiar cosa matematica agrado profe matematica dudar él</t>
-        </is>
+          <t>él necesitar mas profesor como usted profe dar gana de estudiar todo ese cosa matematica con agrado el mejor profe de matematica sin dudar él</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>150</v>
+      </c>
+      <c r="V96" t="n">
+        <v>24</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="97">
@@ -7412,7 +8300,7 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t xml:space="preserve">El docente explica bien, pero considero que falta algo en el método de enseñanza, Continuar mejorando cada vez más y más. Excelente temática la que utilizo para las actividades de la semana de la química. </t>
+          <t>El docente explica bien, pero considero que falta algo en el método de enseñanza, Continuar mejorando cada vez más y más. Excelente temática la que utilizo para las actividades de la semana de la química.</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -7425,8 +8313,17 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>docente explicar considerar faltar metodo ensenanza continuar mejorar excelente tematicar utilacer actividad semana quimica</t>
-        </is>
+          <t>el docente explicar bien pero considerar que faltar algo en el método de enseñanza continuar mejorar cada vez más y más excelente temática el que utilizar para el actividad de el semana de el química</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>204</v>
+      </c>
+      <c r="V97" t="n">
+        <v>35</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="98">
@@ -7497,8 +8394,17 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>tedioso extiendar tema quedar tomar hora ejercicio</t>
-        </is>
+          <t>ser uno poco tedioso que él extiendar mucho en uno tema saber que deber quedar claro pero a veces él tomar el dos hora en uno sólo ejercicio</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>136</v>
+      </c>
+      <c r="V98" t="n">
+        <v>28</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="99">
@@ -7556,7 +8462,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es un excelente docente </t>
+          <t>Es un excelente docente</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -7569,8 +8475,17 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>excelente docente</t>
-        </is>
+          <t>ser uno excelente docente</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>23</v>
+      </c>
+      <c r="V99" t="n">
+        <v>4</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7641,8 +8556,17 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>explicar necesario desarrollar adecuadamente dificultad ejercicio</t>
-        </is>
+          <t>explicar todo él necesario para poder desarrollar adecuadamente y sin dificultad el ejercicio</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>97</v>
+      </c>
+      <c r="V100" t="n">
+        <v>13</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7713,8 +8637,17 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>evaluación deberio retroalimentacion aprendizaje propicio ver desmejoramientona medida continuar curso cambio tema retroalimentacion visto anteriorment</t>
-        </is>
+          <t>en el evaluación deber haber uno retroalimentación para que el aprendizaje ser propicio ya que él ver desmejoramientón medida que continuar el curso debido al cambio de tema sin retroalimentación de él visto anteriorment</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>226</v>
+      </c>
+      <c r="V101" t="n">
+        <v>34</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="102">
@@ -7785,8 +8718,17 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>docente admirar orden cosa</t>
-        </is>
+          <t>mucho buen docente y admirar mucho el orden en el que hacer el cosa</t>
+        </is>
+      </c>
+      <c r="U102" t="n">
+        <v>65</v>
+      </c>
+      <c r="V102" t="n">
+        <v>14</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="103">
@@ -7844,7 +8786,7 @@
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Felicitaciones profe, sabe mucho, mucha paciencia, buen ánimo para sus clases. </t>
+          <t>Felicitaciones profe, sabe mucho, mucha paciencia, buen ánimo para sus clases.</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
@@ -7857,8 +8799,17 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>felicitación profe paciencia animo clase</t>
-        </is>
+          <t>felicitaciones profe saber mucho mucho paciencia buen ánimo para su clase</t>
+        </is>
+      </c>
+      <c r="U103" t="n">
+        <v>78</v>
+      </c>
+      <c r="V103" t="n">
+        <v>11</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="104">
@@ -7929,8 +8880,17 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>excelente profe admirar</t>
-        </is>
+          <t>excelente profe de admirar</t>
+        </is>
+      </c>
+      <c r="U104" t="n">
+        <v>27</v>
+      </c>
+      <c r="V104" t="n">
+        <v>4</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -8001,8 +8961,17 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>enriquecedor nel trabajo gracias</t>
-        </is>
+          <t>mucho enriquecedor nel trabajo gracias</t>
+        </is>
+      </c>
+      <c r="U105" t="n">
+        <v>38</v>
+      </c>
+      <c r="V105" t="n">
+        <v>5</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -8073,8 +9042,17 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>dianar catalinar carrion perez</t>
-        </is>
+          <t>diana catalina carrión pérez</t>
+        </is>
+      </c>
+      <c r="U106" t="n">
+        <v>28</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -8132,7 +9110,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t xml:space="preserve">La docente a evaluar es DIANA CATALINA CARRIÓN </t>
+          <t>La docente a evaluar es DIANA CATALINA CARRIÓN</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
@@ -8145,8 +9123,17 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>docente evaluar diana catalín carrion</t>
-        </is>
+          <t>el docente a evaluar ser diana catalina carrión</t>
+        </is>
+      </c>
+      <c r="U107" t="n">
+        <v>46</v>
+      </c>
+      <c r="V107" t="n">
+        <v>8</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -8220,6 +9207,15 @@
           <t>excelente maestro</t>
         </is>
       </c>
+      <c r="U108" t="n">
+        <v>17</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8292,6 +9288,15 @@
           <t>excelente maestro</t>
         </is>
       </c>
+      <c r="U109" t="n">
+        <v>17</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8348,12 +9353,12 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente asesor de tesis </t>
+          <t>Excelente asesor de tesis</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>es</t>
         </is>
       </c>
       <c r="S110" t="n">
@@ -8361,8 +9366,17 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>excelente asesor tesis</t>
-        </is>
+          <t>excelente asesor de tesis</t>
+        </is>
+      </c>
+      <c r="U110" t="n">
+        <v>25</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -8433,8 +9447,17 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>poseer conocimiento dominio razon manejar metodologia complejo ende dificil comprender ritmo rapido explicar</t>
-        </is>
+          <t>poseer demasiado conocimiento y dominio ser por este quizas el razon de porque manejar uno metodologia complejo y por ende ser dificil de comprender tambien porque tener uno ritmo mucho rapido de explicar</t>
+        </is>
+      </c>
+      <c r="U111" t="n">
+        <v>200</v>
+      </c>
+      <c r="V111" t="n">
+        <v>33</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="112">
@@ -8505,8 +9528,17 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>excelente profesor deberio presente pedagogico hacer él entender</t>
-        </is>
+          <t>excelente profesor pero creer que deber tener uno poco mas presente el parte pedagogico para hacer él entender mejor</t>
+        </is>
+      </c>
+      <c r="U112" t="n">
+        <v>116</v>
+      </c>
+      <c r="V112" t="n">
+        <v>18</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -8564,7 +9596,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siento que es demasiado rápido para explicar los temas, a pesar de tener un conocimiento muy amplio y experiencia, siento que debe ser más paciente con sus estudiantes y explicar todo a detalle </t>
+          <t>Siento que es demasiado rápido para explicar los temas, a pesar de tener un conocimiento muy amplio y experiencia, siento que debe ser más paciente con sus estudiantes y explicar todo a detalle</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -8577,8 +9609,17 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>sentir rapido explicar tema conocimiento amplio experiencia siento paciente estudiante explicar detalle</t>
-        </is>
+          <t>sentir que ser demasiado rápido para explicar el tema a pesar de tener uno conocimiento mucho amplio y experiencia sentir que deber ser más paciente con su estudiante y explicar todo a detalle</t>
+        </is>
+      </c>
+      <c r="U113" t="n">
+        <v>193</v>
+      </c>
+      <c r="V113" t="n">
+        <v>33</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="114">
@@ -8649,8 +9690,17 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>buscar metodo ensenanza aprendizaje mejorar dinamica aula</t>
-        </is>
+          <t>buscar otro metodo de a enseñanza y aprendizaje con el fin de mejorar el dinamica que haber dentro del aula</t>
+        </is>
+      </c>
+      <c r="U114" t="n">
+        <v>106</v>
+      </c>
+      <c r="V114" t="n">
+        <v>20</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="115">
@@ -8708,7 +9758,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aunque le manifesté y varios le manifestáramos que no entendíamos muy bien su metodología nunca hizo nada por cambiarla. Por ello deje de asistir a su clase. </t>
+          <t>Aunque le manifesté y varios le manifestáramos que no entendíamos muy bien su metodología nunca hizo nada por cambiarla. Por ello deje de asistir a su clase.</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -8721,8 +9771,17 @@
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>manifestir manifestarir entendiar metodologia cambiar él dejar asistir clase</t>
-        </is>
+          <t>aunque él manifesté y varios él manifestáramos que no entender mucho bien su metodología nunca hacer nada por cambiar él por él dejar de asistir a su clase</t>
+        </is>
+      </c>
+      <c r="U115" t="n">
+        <v>157</v>
+      </c>
+      <c r="V115" t="n">
+        <v>27</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="116">
@@ -8793,8 +9852,17 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>docente persona</t>
-        </is>
+          <t>ser uno gran docente y persona</t>
+        </is>
+      </c>
+      <c r="U116" t="n">
+        <v>31</v>
+      </c>
+      <c r="V116" t="n">
+        <v>7</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -8865,8 +9933,17 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>docente quimica departamento</t>
-        </is>
+          <t>el mejor docente de química del departamento</t>
+        </is>
+      </c>
+      <c r="U117" t="n">
+        <v>44</v>
+      </c>
+      <c r="V117" t="n">
+        <v>7</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -8924,7 +10001,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es un excelente profesor que se preocupa porque sus estudiantes aprendan </t>
+          <t>Es un excelente profesor que se preocupa porque sus estudiantes aprendan</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -8937,8 +10014,17 @@
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>excelente profesor preocupar estudiante aprendar</t>
-        </is>
+          <t>ser uno excelente profesor que él preocupar porque su estudiante aprender</t>
+        </is>
+      </c>
+      <c r="U118" t="n">
+        <v>72</v>
+      </c>
+      <c r="V118" t="n">
+        <v>11</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -9009,8 +10095,17 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>docente aprendi curso ejemplo seguir</t>
-        </is>
+          <t>mucho buen docente aprender mucho en el curso y poder decir que ser uno total ejemplo a seguir</t>
+        </is>
+      </c>
+      <c r="U119" t="n">
+        <v>90</v>
+      </c>
+      <c r="V119" t="n">
+        <v>18</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="120">
@@ -9068,7 +10163,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t xml:space="preserve">El profe Casas sabe muchísimo de química, pero sus metodologías pedagógicas no son las más adecuadas, reconsiderar su método sería lo ideal, no suponer que todos sabemos, es llevar al estudiante de la mano para llegar a esa tapa de experticia. </t>
+          <t>El profe Casas sabe muchísimo de química, pero sus metodologías pedagógicas no son las más adecuadas, reconsiderar su método sería lo ideal, no suponer que todos sabemos, es llevar al estudiante de la mano para llegar a esa tapa de experticia.</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -9081,8 +10176,17 @@
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>profe casa muchisimo quimica metodologia pedagogica adecuado reconsiderar metodo seriar ideal suponer estudiante mano llegar tapa experticia</t>
-        </is>
+          <t>el profe casas saber muchísimo de química pero su metodología pedagógico no ser el más adecuado reconsiderar su método ser él ideal no suponer que todo saber ser llevar al estudiante de el mano para llegar a ese tapa de experticia</t>
+        </is>
+      </c>
+      <c r="U120" t="n">
+        <v>243</v>
+      </c>
+      <c r="V120" t="n">
+        <v>41</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="121">
@@ -9153,8 +10257,17 @@
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>considerar deberio tratar estudiante pordebajiarlo encontrar proceso aprendizaje</t>
-        </is>
+          <t>considerar que deber tratar mejor a su estudiante y no pordebajiar él yo yo encontrar en uno proceso de aprendizaje y no él saber todo</t>
+        </is>
+      </c>
+      <c r="U121" t="n">
+        <v>149</v>
+      </c>
+      <c r="V121" t="n">
+        <v>25</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="122">
@@ -9225,8 +10338,17 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>deberiar cambiar profesor clase horrible producir ansiedad literalmente llora trabajo educacion deberio estudiante clase importar universidad</t>
-        </is>
+          <t>deberiar cambiar de profesor ver el clase con el es horrible producir ansiedad literalmente uno llorar hacer el trabajo el educación no deber ser así el estudiante no querer clase con el ese no él importar a el universidad</t>
+        </is>
+      </c>
+      <c r="U122" t="n">
+        <v>237</v>
+      </c>
+      <c r="V122" t="n">
+        <v>39</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0.7435897435897436</v>
       </c>
     </row>
     <row r="123">
@@ -9297,8 +10419,17 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>profesor desmeritar saber clase sabiar hacer bobadascomo definitivamente ejemplo seguir</t>
-        </is>
+          <t>el profesor desmeritar nuestro saber en mucho clase yo decir que yo saber nada que solo hacíar bobadas.¿como ser ese posible definitivamente no ser uno ejemplo a seguir</t>
+        </is>
+      </c>
+      <c r="U123" t="n">
+        <v>179</v>
+      </c>
+      <c r="V123" t="n">
+        <v>28</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="124">
@@ -9369,8 +10500,17 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>grosero hora preguntar él paciencia frente duda</t>
-        </is>
+          <t>ser mucho grosero a el hora de preguntar él algo no tener paciencia frente a alguno duda</t>
+        </is>
+      </c>
+      <c r="U124" t="n">
+        <v>87</v>
+      </c>
+      <c r="V124" t="n">
+        <v>16</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="125">
@@ -9441,8 +10581,17 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>comentario despectivo humillant dar él inferioridad dominar tema</t>
-        </is>
+          <t>tener comentario despectivo y humillante dar él inferioridad al que no dominar bien el tema</t>
+        </is>
+      </c>
+      <c r="U125" t="n">
+        <v>98</v>
+      </c>
+      <c r="V125" t="n">
+        <v>14</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -9500,7 +10649,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se solicita al docente que en la virtualidad sea un poco más dinámico ya que solo llegar a leer diapositivas puede llegar a generar dispersión </t>
+          <t>Se solicita al docente que en la virtualidad sea un poco más dinámico ya que solo llegar a leer diapositivas puede llegar a generar dispersión</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -9513,8 +10662,17 @@
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>solicitar docente virtualidad dinamico llegar leer diapositiva llegar generar dispersion</t>
-        </is>
+          <t>él solicitar al docente que en el virtualidad ser uno poco más dinámico ya que solo llegar a leer diapositiva poder llegar a generar dispersión</t>
+        </is>
+      </c>
+      <c r="U126" t="n">
+        <v>142</v>
+      </c>
+      <c r="V126" t="n">
+        <v>25</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="127">
@@ -9585,8 +10743,17 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>solicitar docente virtualidad dinamico llegar leer diapositiva llegar generar dispersion</t>
-        </is>
+          <t>él solicitar al docente que en el virtualidad ser uno poco más dinámico ya que solo llegar a leer diapositiva poder llegar a generar dispersión</t>
+        </is>
+      </c>
+      <c r="U127" t="n">
+        <v>142</v>
+      </c>
+      <c r="V127" t="n">
+        <v>25</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="128">
@@ -9644,7 +10811,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Me gusta el nivel de exigencia que maneja. </t>
+          <t>Me gusta el nivel de exigencia que maneja.</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -9657,8 +10824,17 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>gustar nivel exigencia manejar</t>
-        </is>
+          <t>yo gustar el nivel de exigencia que manejar</t>
+        </is>
+      </c>
+      <c r="U128" t="n">
+        <v>42</v>
+      </c>
+      <c r="V128" t="n">
+        <v>8</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -9729,8 +10905,17 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>gustar nivel exigencia manejar</t>
-        </is>
+          <t>yo gustar el nivel de exigencia que manejar</t>
+        </is>
+      </c>
+      <c r="U129" t="n">
+        <v>42</v>
+      </c>
+      <c r="V129" t="n">
+        <v>8</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -9801,8 +10986,17 @@
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>profesor clavijo contenido disciplinar impecablemente pedagogico didactico ensenanza ciencia formacion servir sepa conocimiento impart</t>
-        </is>
+          <t>el profesor clavijo manerar el contenido disciplinares impecablemente pero en el parte pedagógico y didáctico de el enseñanza de el ciencia no tener formación alguno de nada servir que saber mucho si todo el conocimiento que tener no él saber impart</t>
+        </is>
+      </c>
+      <c r="U130" t="n">
+        <v>250</v>
+      </c>
+      <c r="V130" t="n">
+        <v>41</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="131">
@@ -9873,8 +11067,17 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>docente tema veiar afectado manejo tiempo</t>
-        </is>
+          <t>buena docente sin embargo el tema él ver afectado por mal manejo del tiempo</t>
+        </is>
+      </c>
+      <c r="U131" t="n">
+        <v>82</v>
+      </c>
+      <c r="V131" t="n">
+        <v>14</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -9943,7 +11146,20 @@
       <c r="S132" t="n">
         <v>48.5</v>
       </c>
-      <c r="T132" t="inlineStr"/>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U132" t="n">
+        <v>7</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -10000,7 +11216,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muy buena presencia y actitud en clase, muy didáctica bastante ludica </t>
+          <t>Muy buena presencia y actitud en clase, muy didáctica bastante ludica</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -10013,8 +11229,17 @@
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>presencia actitud clase didactico ludico</t>
-        </is>
+          <t>mucho buen presencia y actitud en clase mucho didáctico bastante ludicar</t>
+        </is>
+      </c>
+      <c r="U133" t="n">
+        <v>69</v>
+      </c>
+      <c r="V133" t="n">
+        <v>11</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="134">
@@ -10085,8 +11310,17 @@
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>profesora</t>
-        </is>
+          <t>ser uno mucho buen profesora</t>
+        </is>
+      </c>
+      <c r="U134" t="n">
+        <v>26</v>
+      </c>
+      <c r="V134" t="n">
+        <v>5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -10157,8 +11391,17 @@
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>planificar clase plan estudio ocasión poner estudiante clase orientacion entrega trabajo final presentación aprendimos docente</t>
-        </is>
+          <t>planificar mejor su clase de acuerdo al plan de estudio en varios ocasión solo poner a el estudiante a hacer el clase sin uno orientación para entrega de trabajo final y presentación no aprender nada mal docente</t>
+        </is>
+      </c>
+      <c r="U135" t="n">
+        <v>228</v>
+      </c>
+      <c r="V135" t="n">
+        <v>37</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0.8648648648648649</v>
       </c>
     </row>
     <row r="136">
@@ -10216,7 +11459,7 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay temas que no quedan del todo claros, aunque el maestro intenta resolver las dudas considero que hay temas que quedan volando </t>
+          <t>Hay temas que no quedan del todo claros, aunque el maestro intenta resolver las dudas considero que hay temas que quedan volando</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -10229,8 +11472,17 @@
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>tema quedar claro maestro intentar resolver duda considero tema quedar volar</t>
-        </is>
+          <t>haber tema que no quedar del todo claro aunque el maestro intentar resolver el duda considerar que haber tema que quedar volar</t>
+        </is>
+      </c>
+      <c r="U136" t="n">
+        <v>128</v>
+      </c>
+      <c r="V136" t="n">
+        <v>22</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="137">
@@ -10301,8 +11553,17 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>mejorar metodologia clase establecer estrategia evaluacion metodo curso curriculo estar mezclado curso</t>
-        </is>
+          <t>mejorar el metodología de el clase y establecer estrategia de evaluación y y método para llevar el curso desde el diferente currículo ya que estár mezclado en el curso</t>
+        </is>
+      </c>
+      <c r="U137" t="n">
+        <v>177</v>
+      </c>
+      <c r="V137" t="n">
+        <v>29</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0.7241379310344828</v>
       </c>
     </row>
     <row r="138">
@@ -10373,8 +11634,17 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>profesor ensenar semestre aprender poner exponer estudiante apropiado curso importante formulacion gestion proyecto educativo</t>
-        </is>
+          <t>el profesor no enseñar durante el semestre no él aprender nada solo poner a exponer a el estudiante que yo parecer que no ser él apropiado para uno curso de tanto importante como él ser formulación y gestión de proyecto educativo</t>
+        </is>
+      </c>
+      <c r="U138" t="n">
+        <v>229</v>
+      </c>
+      <c r="V138" t="n">
+        <v>41</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0.7560975609756098</v>
       </c>
     </row>
     <row r="139">
@@ -10432,7 +11702,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se debe buscar profesores capaces de abordar ese espacio académico por medio de la convocatoria de selección por méritos, ya que un docente que solo deja exposiciones y lecturas no es nada enriquecedor, aún más cuando no avanza en nada del syllabus. </t>
+          <t>Se debe buscar profesores capaces de abordar ese espacio académico por medio de la convocatoria de selección por méritos, ya que un docente que solo deja exposiciones y lecturas no es nada enriquecedor, aún más cuando no avanza en nada del syllabus.</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -10445,8 +11715,17 @@
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>buscar profesor capaz abordar espacio academico convocatoria seleccion merito docente dejar exposición lectura enriquecedor avanzar syllabus</t>
-        </is>
+          <t>él deber buscar profesor capaz de abordar ese espacio académico por medio de el convocatoria de selección por mérito ya que uno docente que solo dejar exposición y lectura no ser nada enriquecedor aún más cuando no avanzar en nada del syllabus</t>
+        </is>
+      </c>
+      <c r="U139" t="n">
+        <v>249</v>
+      </c>
+      <c r="V139" t="n">
+        <v>42</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="140">
@@ -10517,8 +11796,17 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>docente proyecto gestion aplicable aula</t>
-        </is>
+          <t>ser uno gran docente el proyecto de gestión ser aplicable al aula</t>
+        </is>
+      </c>
+      <c r="U140" t="n">
+        <v>63</v>
+      </c>
+      <c r="V140" t="n">
+        <v>12</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="141">
@@ -10576,7 +11864,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quiero manifestar que en algunas ocasiones el docente no tuvo la mejor actitud en clase, debido a que contestaba de manera altanera a los estudiantes y aparte en algunas ocasiones no era muy claro con las explicacione que daba frente a algunos temas </t>
+          <t>Quiero manifestar que en algunas ocasiones el docente no tuvo la mejor actitud en clase, debido a que contestaba de manera altanera a los estudiantes y aparte en algunas ocasiones no era muy claro con las explicacione que daba frente a algunos temas</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -10589,8 +11877,17 @@
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>querer manifestar ocasión docente actitud clase contestar altanero estudiante aparte ocasión explicacione dar frente tema</t>
-        </is>
+          <t>querer manifestar que en alguno ocasión el docente no tener el mejor actitud en clase debido a que contestar de manera altanero a el estudiante y aparte en alguno ocasión no ser mucho claro con el explicacione que dar frente a alguno tema</t>
+        </is>
+      </c>
+      <c r="U141" t="n">
+        <v>249</v>
+      </c>
+      <c r="V141" t="n">
+        <v>43</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0.6976744186046512</v>
       </c>
     </row>
     <row r="142">
@@ -10661,8 +11958,17 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>clase orientar docente curso termino semana culminar calendario academico</t>
-        </is>
+          <t>el clase solamente ser orientar por el docente y el curso él terminar dos semana antes de culminar el calendario académico</t>
+        </is>
+      </c>
+      <c r="U142" t="n">
+        <v>130</v>
+      </c>
+      <c r="V142" t="n">
+        <v>21</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="143">
@@ -10733,8 +12039,17 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>demasiado estudiante curso</t>
-        </is>
+          <t>demasiado estudiante en este curso</t>
+        </is>
+      </c>
+      <c r="U143" t="n">
+        <v>37</v>
+      </c>
+      <c r="V143" t="n">
+        <v>5</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -10805,8 +12120,17 @@
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>falta respeto profesor tomar espacio clase cosa dejar espacio academico</t>
-        </is>
+          <t>yo parecer uno falta de respeto por parte del profesor que él tomar el espacio de clase para realizar su cosa dejar de lado el espacio académico</t>
+        </is>
+      </c>
+      <c r="U144" t="n">
+        <v>150</v>
+      </c>
+      <c r="V144" t="n">
+        <v>27</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="145">
@@ -10877,8 +12201,17 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>recomendar departamento docente apropiar él espacio abordar tematica espacio dar debate proporcionar dialogo inter participante</t>
-        </is>
+          <t>él recomendar al departamento o al mismo docente apropiar él del espacio debido a que en este no él abordo nada de el temática del espacio no él dar debate o no proporcionar uno dialogo que fuera del interés para el participante</t>
+        </is>
+      </c>
+      <c r="U145" t="n">
+        <v>236</v>
+      </c>
+      <c r="V145" t="n">
+        <v>41</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="146">
@@ -10936,7 +12269,7 @@
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t xml:space="preserve">El profesor faltó a muchas sesiones de clase, e incluso unas las tomaba en el carro, además el curso se basó netamente en exposiciones y un trabajo final, considero que se debería mejorar la manera en la que aborda los contenidos </t>
+          <t>El profesor faltó a muchas sesiones de clase, e incluso unas las tomaba en el carro, además el curso se basó netamente en exposiciones y un trabajo final, considero que se debería mejorar la manera en la que aborda los contenidos</t>
         </is>
       </c>
       <c r="R146" t="inlineStr">
@@ -10949,8 +12282,17 @@
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>profesor falto sesión clase tomar carro curso baso netamente exposición trabajo considerar deberiar mejorar abordar contenido</t>
-        </is>
+          <t>el profesor faltar a mucho sesión de clase e incluso uno él tomar en el carro además el curso él basar netamente en exposición y uno trabajo final considerar que él deber mejorar el manera en el que abordar el contenido</t>
+        </is>
+      </c>
+      <c r="U146" t="n">
+        <v>229</v>
+      </c>
+      <c r="V146" t="n">
+        <v>41</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="147">
@@ -11021,8 +12363,17 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>profesor falto sesión clase tomar carro curso baso netamente exposición trabajo considerar deberiar mejorar abordar contenido</t>
-        </is>
+          <t>el profesor faltar a mucho sesión de clase e incluso uno él tomar en el carro además el curso él basar netamente en exposición y uno trabajo final considerar que él deber mejorar el manera en el que abordar el contenido</t>
+        </is>
+      </c>
+      <c r="U147" t="n">
+        <v>229</v>
+      </c>
+      <c r="V147" t="n">
+        <v>41</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="148">
@@ -11093,8 +12444,17 @@
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>docente encontrar presente sesión clase presentar atencion debido seminario seguimiento programa analitico realizar tutoria proyecto activo aula</t>
-        </is>
+          <t>el docente él encontrar presente en el sesión de clase mas no presentar el atención debido en el seminario no hacia el debido seguimiento del programa analítico solamente él realizar tutoría para uno proyecto final no ser activo en el aula</t>
+        </is>
+      </c>
+      <c r="U148" t="n">
+        <v>250</v>
+      </c>
+      <c r="V148" t="n">
+        <v>41</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="149">
@@ -11165,8 +12525,17 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>docente encontrar presente sesión clase presentar atencion debido seminario seguimiento programa analitico realizar tutoria proyecto activo aula</t>
-        </is>
+          <t>el docente él encontrar presente en el sesión de clase mas no presentar el atención debido en el seminario no hacia el debido seguimiento del programa analítico solamente él realizar tutoría para uno proyecto final no ser activo en el aula</t>
+        </is>
+      </c>
+      <c r="U149" t="n">
+        <v>250</v>
+      </c>
+      <c r="V149" t="n">
+        <v>41</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="150">
@@ -11224,7 +12593,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t xml:space="preserve">No explicó bien los temas y uso videos del universo mecánico de 40 min para que el vídeo explicará y el no, además de hacer eso solo explicaba un ejercicio y dejaba tarea, tampoco se le veían ganas de explicar más y no tenía muy buena actitud </t>
+          <t>No explicó bien los temas y uso videos del universo mecánico de 40 min para que el vídeo explicará y el no, además de hacer eso solo explicaba un ejercicio y dejaba tarea, tampoco se le veían ganas de explicar más y no tenía muy buena actitud</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -11237,8 +12606,17 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>explico tema video universo mecanico min video explicara explicar ejercicio dejar tarea veiar gana explicar tenia actitud</t>
-        </is>
+          <t>no explicar bien el tema y uso videos del universo mecánico de min para que el vídeo explicar y el no además de hacer ese solo explicar uno ejercicio y dejar tarea tampoco él él ver gana de explicar más y no tener mucho buen actitud</t>
+        </is>
+      </c>
+      <c r="U150" t="n">
+        <v>242</v>
+      </c>
+      <c r="V150" t="n">
+        <v>47</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0.7173913043478261</v>
       </c>
     </row>
     <row r="151">
@@ -11296,7 +12674,7 @@
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>En algunas ocasiones el docente manifestó inconformismo por el grupo de clase,  pues no habia disposición de ambas partes y compromiso.</t>
+          <t>En algunas ocasiones el docente manifestó inconformismo por el grupo de clase, pues no habia disposición de ambas partes y compromiso.</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -11309,8 +12687,17 @@
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>ocasión docente manifesto inconformismo grupo clase disposicion ambos parte compromiso</t>
-        </is>
+          <t>en alguno ocasión el docente manifestar inconformismo por el grupo de clase pues no habia disposición de ambos parte y compromiso</t>
+        </is>
+      </c>
+      <c r="U151" t="n">
+        <v>134</v>
+      </c>
+      <c r="V151" t="n">
+        <v>21</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="152">
@@ -11381,8 +12768,17 @@
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>docente manejar tema ocasión malgenio notar forma comunicacion estudiante</t>
-        </is>
+          <t>el docente manejar bien el tema sin embargo en alguno ocasión este de malgenio y él hacer notar en su forma de comunicación con el estudiante</t>
+        </is>
+      </c>
+      <c r="U152" t="n">
+        <v>148</v>
+      </c>
+      <c r="V152" t="n">
+        <v>26</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="153">
@@ -11453,8 +12849,17 @@
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>pesimo metodologia clase</t>
-        </is>
+          <t>tener uno pésimo metodología de clase</t>
+        </is>
+      </c>
+      <c r="U153" t="n">
+        <v>37</v>
+      </c>
+      <c r="V153" t="n">
+        <v>6</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -11525,8 +12930,17 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>desarrollo curso centro tutoria clase syllabus tema abordar sesión mezcla versión dificulto forma manejar espacio academic</t>
-        </is>
+          <t>el desarrollo del curso él centro el tutoria todo el clase según él que él encontrar en el syllabus varios tema no ser abordar durante estás sesión además el mezcla de el dos versión dificultar el forma de manejar el espacio académic</t>
+        </is>
+      </c>
+      <c r="U154" t="n">
+        <v>250</v>
+      </c>
+      <c r="V154" t="n">
+        <v>42</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="155">
@@ -11597,8 +13011,17 @@
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>profesor tomar clase ir manejar encontrar espacio clase clase exponer avance proyecto esperar espacio academico</t>
-        </is>
+          <t>el profesor tomar clase mientras ir manejar no él encontrar en espacio para realizar bien el clase el clase solo ser exponer el avance del proyecto final no ser él que esperar de espacio academico</t>
+        </is>
+      </c>
+      <c r="U155" t="n">
+        <v>210</v>
+      </c>
+      <c r="V155" t="n">
+        <v>35</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="156">
@@ -11669,8 +13092,17 @@
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>docente jairo robl pinero docente deberiar mejor profesor biologia quimica aprender considerar q proceso electiva proyecto</t>
-        </is>
+          <t>docente jairo robl pinero ser mucho buen docente y deber poner mejor profesor de biología en química de aprender mucho y considerar q él dar para dar uno proceso más largo con el electiva para hacer grande proyecto</t>
+        </is>
+      </c>
+      <c r="U156" t="n">
+        <v>223</v>
+      </c>
+      <c r="V156" t="n">
+        <v>38</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="157">
@@ -11728,7 +13160,7 @@
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t xml:space="preserve">William Mora, Isabel Garzón, Julio Alejandro Castro y Diana Parga </t>
+          <t>William Mora, Isabel Garzón, Julio Alejandro Castro y Diana Parga</t>
         </is>
       </c>
       <c r="R157" t="inlineStr">
@@ -11741,8 +13173,17 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>william mora isabel garzon julio alejandro castro diana pargo</t>
-        </is>
+          <t>william mora isabel garzón julio alejandro castro y diana parga</t>
+        </is>
+      </c>
+      <c r="U157" t="n">
+        <v>65</v>
+      </c>
+      <c r="V157" t="n">
+        <v>10</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -11813,8 +13254,17 @@
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>seminario doctorado diana lineth pargo</t>
-        </is>
+          <t>seminario del doctorado diana lineth parga</t>
+        </is>
+      </c>
+      <c r="U158" t="n">
+        <v>44</v>
+      </c>
+      <c r="V158" t="n">
+        <v>7</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -11885,8 +13335,17 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>docente estefania nieve manejo adecuado espacio</t>
-        </is>
+          <t>docente estefanía nieves manejo adecuado del espacio</t>
+        </is>
+      </c>
+      <c r="U159" t="n">
+        <v>52</v>
+      </c>
+      <c r="V159" t="n">
+        <v>7</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -11957,8 +13416,17 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>dr isabel garzon julio castro william mora diana pargo</t>
-        </is>
+          <t>dres isabel garzón julio a. castro william mora y diana parga</t>
+        </is>
+      </c>
+      <c r="U160" t="n">
+        <v>64</v>
+      </c>
+      <c r="V160" t="n">
+        <v>11</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -12016,7 +13484,7 @@
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stefania Nieves Torres - muy desprendida de las clases sincrónicas, sin embargo ella permitió una salida de campo para dar un inicio a lo que son las prácticas </t>
+          <t>Stefania Nieves Torres - muy desprendida de las clases sincrónicas, sin embargo ella permitió una salida de campo para dar un inicio a lo que son las prácticas</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
@@ -12029,8 +13497,17 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>stefania nieve torre desprendido clase sincronica permitio salida campo inicio practica</t>
-        </is>
+          <t>stefania nieves torres mucho desprendido de el clase sincrónica sin embargo él permitir uno salida de campo para dar uno inicio a él que ser el práctica</t>
+        </is>
+      </c>
+      <c r="U161" t="n">
+        <v>159</v>
+      </c>
+      <c r="V161" t="n">
+        <v>28</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="162">
@@ -12101,8 +13578,17 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>evaluacion correspondiente profe estefanio nieve torre</t>
-        </is>
+          <t>ser el evaluación correspondiente a el profe estefanía nieves torres</t>
+        </is>
+      </c>
+      <c r="U162" t="n">
+        <v>67</v>
+      </c>
+      <c r="V162" t="n">
+        <v>10</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="163">
@@ -12173,8 +13659,17 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>docente estefania nieve</t>
-        </is>
+          <t>docente estefania nieves</t>
+        </is>
+      </c>
+      <c r="U163" t="n">
+        <v>24</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -12245,8 +13740,17 @@
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>estefania nieve torre</t>
-        </is>
+          <t>estefanía nieves torres</t>
+        </is>
+      </c>
+      <c r="U164" t="n">
+        <v>23</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -12304,7 +13808,7 @@
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluación correspondiente a la profesora Estefanía Nieves Torres </t>
+          <t>Evaluación correspondiente a la profesora Estefanía Nieves Torres</t>
         </is>
       </c>
       <c r="R165" t="inlineStr">
@@ -12317,8 +13821,17 @@
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>evaluacion correspondiente profesora estefanio nieve torre</t>
-        </is>
+          <t>evaluación correspondiente a el profesora estefanía nieves torres</t>
+        </is>
+      </c>
+      <c r="U165" t="n">
+        <v>65</v>
+      </c>
+      <c r="V165" t="n">
+        <v>8</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -12389,8 +13902,17 @@
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>estefania nieve torre limito explicar cosa practica pedir laboratorio frente conceptual allo exponiar supir nota profesor jaime casa ensenir excel</t>
-        </is>
+          <t>estefanía nieves torres él limitar a explicar cosa práctico y pedir laboratorio pero frente a él conceptual no haber más allá de él que exponer por él nunca saber nota de nada hasta que el profesor jaime casas yo enseñar el excel</t>
+        </is>
+      </c>
+      <c r="U166" t="n">
+        <v>242</v>
+      </c>
+      <c r="V166" t="n">
+        <v>42</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="167">
@@ -12461,8 +13983,17 @@
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>profesora estafia nieve</t>
-        </is>
+          <t>profesora estafía nieves</t>
+        </is>
+      </c>
+      <c r="U167" t="n">
+        <v>24</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -12533,8 +14064,17 @@
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>profesor luis fernando diaz</t>
-        </is>
+          <t>profesor luis fernando díaz</t>
+        </is>
+      </c>
+      <c r="U168" t="n">
+        <v>27</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -12605,8 +14145,17 @@
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>estefania nieve</t>
-        </is>
+          <t>estefania nieves</t>
+        </is>
+      </c>
+      <c r="U169" t="n">
+        <v>16</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -12677,8 +14226,17 @@
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>jairir robl pinero</t>
-        </is>
+          <t>jairo robles pineros</t>
+        </is>
+      </c>
+      <c r="U170" t="n">
+        <v>20</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -12749,8 +14307,17 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>profesorar estefanio nieve exento sufrir dificultad profesora oportunamente curso dejar abandonado curso nota alcanzar reponer tiempo</t>
-        </is>
+          <t>profesora estefania nieves aunque nadie estar exento de sufrir alguno dificultad el profesora no informar oportunamente ese al curso no dejar abandonado el curso no saber nota no alcanzar a reponer el tiempo</t>
+        </is>
+      </c>
+      <c r="U171" t="n">
+        <v>214</v>
+      </c>
+      <c r="V171" t="n">
+        <v>33</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="172">
@@ -12813,7 +14380,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="S172" t="n">
@@ -12821,8 +14388,17 @@
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>pablo paramo</t>
-        </is>
+          <t>pablo páramo</t>
+        </is>
+      </c>
+      <c r="U172" t="n">
+        <v>12</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -12880,7 +14456,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente profesora , me gusto mucho su trabajo espero encontrarme con ella en otro semestre , aprendi demasiadas cosas </t>
+          <t>Excelente profesora , me gusto mucho su trabajo espero encontrarme con ella en otro semestre , aprendi demasiadas cosas</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -12893,8 +14469,17 @@
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>excelente profesora gusto trabajo esperar encontrar yo semestre aprendi demasiado cosa</t>
-        </is>
+          <t>excelente profesora yo gustar mucho su trabajo esperar encontrar yo con él en otro semestre aprendar demasiado cosa</t>
+        </is>
+      </c>
+      <c r="U173" t="n">
+        <v>119</v>
+      </c>
+      <c r="V173" t="n">
+        <v>19</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="174">
@@ -12965,8 +14550,17 @@
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>tematica curso parecer formativa</t>
-        </is>
+          <t>el temática del curso yo parecer poco formativo</t>
+        </is>
+      </c>
+      <c r="U174" t="n">
+        <v>53</v>
+      </c>
+      <c r="V174" t="n">
+        <v>8</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -13024,12 +14618,12 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Que no deje dos tareas por clase de distintos temas </t>
+          <t>Que no deje dos tareas por clase de distintos temas</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>es</t>
         </is>
       </c>
       <c r="S175" t="n">
@@ -13037,8 +14631,17 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>dejar tarea clase distinto tema</t>
-        </is>
+          <t>que no dejar dos tarea por clase de distinto tema</t>
+        </is>
+      </c>
+      <c r="U175" t="n">
+        <v>51</v>
+      </c>
+      <c r="V175" t="n">
+        <v>10</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -13109,8 +14712,17 @@
       </c>
       <c r="T176" t="inlineStr">
         <is>
-          <t>deberiar centrar tema avanzado nivel universidad tema colegio</t>
-        </is>
+          <t>creer que deber centrar el tema a algo mas avanzado a nivel universidad no tema de colegio</t>
+        </is>
+      </c>
+      <c r="U176" t="n">
+        <v>97</v>
+      </c>
+      <c r="V176" t="n">
+        <v>17</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="177">
@@ -13168,7 +14780,7 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son demasiados trabajos los que deja, es buena docente pero la cantidad de trabajos que hay que hacer son excesivos. </t>
+          <t>Son demasiados trabajos los que deja, es buena docente pero la cantidad de trabajos que hay que hacer son excesivos.</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -13181,8 +14793,17 @@
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>demasiado trabajo dejar docente cantidad trabajo excesivo</t>
-        </is>
+          <t>ser demasiado trabajo el que dejar ser buen docente pero el cantidad de trabajo que haber que hacer ser excesivo</t>
+        </is>
+      </c>
+      <c r="U177" t="n">
+        <v>116</v>
+      </c>
+      <c r="V177" t="n">
+        <v>20</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="178">
@@ -13251,7 +14872,20 @@
       <c r="S178" t="n">
         <v>47.6</v>
       </c>
-      <c r="T178" t="inlineStr"/>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>bien</t>
+        </is>
+      </c>
+      <c r="U178" t="n">
+        <v>7</v>
+      </c>
+      <c r="V178" t="n">
+        <v>1</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -13319,7 +14953,20 @@
       <c r="S179" t="n">
         <v>48.9</v>
       </c>
-      <c r="T179" t="inlineStr"/>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U179" t="n">
+        <v>7</v>
+      </c>
+      <c r="V179" t="n">
+        <v>1</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -13376,7 +15023,7 @@
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t xml:space="preserve">La profe tiene buen manejo de las temáticas, sim embargo, muchos temas son innecesarios y abigarrar el asunto de trabajos no creo que sea la mejor forma de enseñar. </t>
+          <t>La profe tiene buen manejo de las temáticas, sim embargo, muchos temas son innecesarios y abigarrar el asunto de trabajos no creo que sea la mejor forma de enseñar.</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
@@ -13389,8 +15036,17 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>profe manejo tematica sim tema innecesario abigarrar asunto trabajo forma ensenar</t>
-        </is>
+          <t>el profe tener buen manejo de el temática sim embargo mucho tema ser innecesario y abigarrar el asunto de trabajo no creer que ser el mejor forma de enseñar</t>
+        </is>
+      </c>
+      <c r="U180" t="n">
+        <v>164</v>
+      </c>
+      <c r="V180" t="n">
+        <v>29</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="181">
@@ -13448,7 +15104,7 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gran docente, muy comprometida con su espacio académico, demostró un gran manejo de la temática y de los recursos pedagogícos </t>
+          <t>Gran docente, muy comprometida con su espacio académico, demostró un gran manejo de la temática y de los recursos pedagogícos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
@@ -13461,8 +15117,17 @@
       </c>
       <c r="T181" t="inlineStr">
         <is>
-          <t>docente comprometido espacio academico demostro manejo tematica recurso pedagogico</t>
-        </is>
+          <t>gran docente mucho comprometido con su espacio académico demostrar uno gran manejo de el temática y de el recurso pedagogíco</t>
+        </is>
+      </c>
+      <c r="U181" t="n">
+        <v>125</v>
+      </c>
+      <c r="V181" t="n">
+        <v>20</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="182">
@@ -13533,8 +15198,17 @@
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>mejorar organizacion nota actividad actualizar él instruir él manejo tics</t>
-        </is>
+          <t>mejorar el organización de nota y actividad actualizar él e instruir él en el manejo de el tics</t>
+        </is>
+      </c>
+      <c r="U182" t="n">
+        <v>98</v>
+      </c>
+      <c r="V182" t="n">
+        <v>16</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="183">
@@ -13605,8 +15279,17 @@
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>virtualidad reto considerar espacio naturaleza necesitar interactivo dinamico aterrizado estudiante quimicar respetar hora finalizacion clase</t>
-        </is>
+          <t>el virtualidad ser uno reto para todo considerar que el espacio por su naturaleza necesitar ser más interactivo y dinámico además aterrizado para estudiante de química respetar el hora de finalización de el clase</t>
+        </is>
+      </c>
+      <c r="U183" t="n">
+        <v>213</v>
+      </c>
+      <c r="V183" t="n">
+        <v>34</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="184">
@@ -13680,6 +15363,15 @@
           <t>excelente maestro</t>
         </is>
       </c>
+      <c r="U184" t="n">
+        <v>17</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -13736,7 +15428,7 @@
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propone muchos temas en muy poco tiempo, que no vaya tan rápido con las temáticas </t>
+          <t>Propone muchos temas en muy poco tiempo, que no vaya tan rápido con las temáticas</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -13749,8 +15441,17 @@
       </c>
       <c r="T185" t="inlineStr">
         <is>
-          <t>proponer tema tiempo rapido tematica</t>
-        </is>
+          <t>proponer mucho tema en mucho poco tiempo que no ir tanto rápido con el temática</t>
+        </is>
+      </c>
+      <c r="U185" t="n">
+        <v>81</v>
+      </c>
+      <c r="V185" t="n">
+        <v>15</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="186">
@@ -13808,7 +15509,7 @@
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t xml:space="preserve">El explica de una manera muy calmada, tiene paciencia nos trata siempre con mucho respeto, nos dedica tiempo en las tutorías para explicarnos alguna duda  </t>
+          <t>El explica de una manera muy calmada, tiene paciencia nos trata siempre con mucho respeto, nos dedica tiempo en las tutorías para explicarnos alguna duda</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -13821,8 +15522,17 @@
       </c>
       <c r="T186" t="inlineStr">
         <is>
-          <t>explica calmado paciencia respeto dedicar tiempo tutoria explicarno duda</t>
-        </is>
+          <t>el explicar de uno manera mucho calmado tener paciencia yo tratar siempre con mucho respeto yo dedicar tiempo en el tutoría para explicar yo alguno duda</t>
+        </is>
+      </c>
+      <c r="U186" t="n">
+        <v>153</v>
+      </c>
+      <c r="V186" t="n">
+        <v>25</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="187">
@@ -13893,8 +15603,17 @@
       </c>
       <c r="T187" t="inlineStr">
         <is>
-          <t>profesor explicar bieir tematica respetuoso ordenado</t>
-        </is>
+          <t>el profesor explicar mucho bieen el temática ser mucho respetuoso y ordenado</t>
+        </is>
+      </c>
+      <c r="U187" t="n">
+        <v>72</v>
+      </c>
+      <c r="V187" t="n">
+        <v>12</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="188">
@@ -13952,7 +15671,7 @@
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Explicar mas despacio las temáticas y revisar los trabajos asignados  </t>
+          <t>Explicar mas despacio las temáticas y revisar los trabajos asignados</t>
         </is>
       </c>
       <c r="R188" t="inlineStr">
@@ -13965,8 +15684,17 @@
       </c>
       <c r="T188" t="inlineStr">
         <is>
-          <t>explicar tematica revisar trabajo asignado</t>
-        </is>
+          <t>explicar mas despacio el temática y revisar el trabajo asignado</t>
+        </is>
+      </c>
+      <c r="U188" t="n">
+        <v>68</v>
+      </c>
+      <c r="V188" t="n">
+        <v>10</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="189">
@@ -14040,6 +15768,15 @@
           <t>excelente</t>
         </is>
       </c>
+      <c r="U189" t="n">
+        <v>9</v>
+      </c>
+      <c r="V189" t="n">
+        <v>1</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -14107,7 +15844,20 @@
       <c r="S190" t="n">
         <v>47.9</v>
       </c>
-      <c r="T190" t="inlineStr"/>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U190" t="n">
+        <v>7</v>
+      </c>
+      <c r="V190" t="n">
+        <v>1</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -14164,7 +15914,7 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Buen conocimiento, faltaría un poco de entusiasmo a la hora de transmitir las clases </t>
+          <t>Buen conocimiento, faltaría un poco de entusiasmo a la hora de transmitir las clases</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -14177,8 +15927,17 @@
       </c>
       <c r="T191" t="inlineStr">
         <is>
-          <t>conocimiento faltario entusiasmo hora transmitir clase</t>
-        </is>
+          <t>buen conocimiento faltar uno poco de entusiasmo a el hora de transmitir el clase</t>
+        </is>
+      </c>
+      <c r="U191" t="n">
+        <v>84</v>
+      </c>
+      <c r="V191" t="n">
+        <v>14</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="192">
@@ -14247,7 +16006,20 @@
       <c r="S192" t="n">
         <v>46.7</v>
       </c>
-      <c r="T192" t="inlineStr"/>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U192" t="n">
+        <v>7</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -14317,8 +16089,17 @@
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>felicitar docente curso recurso dinamica utilizar innovador</t>
-        </is>
+          <t>felicitar al docente por como llevar al curso el recurso y dinámico que utilizar para que ser más innovador</t>
+        </is>
+      </c>
+      <c r="U193" t="n">
+        <v>111</v>
+      </c>
+      <c r="V193" t="n">
+        <v>19</v>
+      </c>
+      <c r="W193" t="n">
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="194">
@@ -14376,7 +16157,7 @@
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>El docente maneja muy buenas estrategias conceptuales y didácticas que permiten el buen desarrollo del curso  es una electiva que considero que se siga ofertando ya que para el docente de ciencias genera varias herramientas que aportan en su quehacer</t>
+          <t>El docente maneja muy buenas estrategias conceptuales y didácticas que permiten el buen desarrollo del curso es una electiva que considero que se siga ofertando ya que para el docente de ciencias genera varias herramientas que aportan en su quehacer</t>
         </is>
       </c>
       <c r="R194" t="inlineStr">
@@ -14389,8 +16170,17 @@
       </c>
       <c r="T194" t="inlineStr">
         <is>
-          <t>docente manejar estrategia conceptual didactica permitir desarrollo curso electiva considerar seguir ofertar docente ciencia generar herramienta aportar quehacer</t>
-        </is>
+          <t>el docente manejar mucho buena estrategia conceptual y didáctica que permitir el buen desarrollo del curso ser uno electiva que considerar que él seguir ofertar ya que para el docente de ciencia generar varios herramienta que aportar en su quehacer</t>
+        </is>
+      </c>
+      <c r="U194" t="n">
+        <v>249</v>
+      </c>
+      <c r="V194" t="n">
+        <v>40</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0.825</v>
       </c>
     </row>
     <row r="195">
@@ -14448,7 +16238,7 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es muy interesante la dinámica que se lleva a cabo en este espacio académico en términos de aprendizaje. </t>
+          <t>Es muy interesante la dinámica que se lleva a cabo en este espacio académico en términos de aprendizaje.</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -14461,8 +16251,17 @@
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>interesante dinamica cabo espacio academico termino aprendizaje</t>
-        </is>
+          <t>ser mucho interesante el dinámica que él llevar a cabo en este espacio académico en término de aprendizaje</t>
+        </is>
+      </c>
+      <c r="U195" t="n">
+        <v>104</v>
+      </c>
+      <c r="V195" t="n">
+        <v>18</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="196">
@@ -14533,8 +16332,17 @@
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>espacio academico</t>
-        </is>
+          <t>mucho buen espacio académico</t>
+        </is>
+      </c>
+      <c r="U196" t="n">
+        <v>27</v>
+      </c>
+      <c r="V196" t="n">
+        <v>4</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -14605,8 +16413,17 @@
       </c>
       <c r="T197" t="inlineStr">
         <is>
-          <t>gracia profesor ricardo espacio brindado reflexion formacion docente agradecer guiar yo documento practica critica constructiva quedo agradecido</t>
-        </is>
+          <t>mucho gracias profesor ricardo por el espacio brindado de reflexión en nuestro formación como docente de igual manera él agradecer por guiar yo en el documento de practica siempre con critica constructivo quedar mucho agradecido</t>
+        </is>
+      </c>
+      <c r="U197" t="n">
+        <v>235</v>
+      </c>
+      <c r="V197" t="n">
+        <v>34</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0.8285714285714286</v>
       </c>
     </row>
     <row r="198">
@@ -14664,7 +16481,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>Mejorar la explicación de las temáticas, aveces  asume que hay un saber previo y avanza muy rapido en los temas sin tener en cuenta los estudiantes con dificultades y no existen tutorias.</t>
+          <t>Mejorar la explicación de las temáticas, aveces asume que hay un saber previo y avanza muy rapido en los temas sin tener en cuenta los estudiantes con dificultades y no existen tutorias.</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -14677,8 +16494,17 @@
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>mejorar explicacion tematica avez asumir previo avanzar rapido tema estudiante dificultad tutoria</t>
-        </is>
+          <t>mejorar el explicación de el temática avez asumir que haber uno saber previo y avanzar mucho rapido en el tema sin tener en cuenta el estudiante con dificultad y no existir tutoria</t>
+        </is>
+      </c>
+      <c r="U198" t="n">
+        <v>186</v>
+      </c>
+      <c r="V198" t="n">
+        <v>32</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0.84375</v>
       </c>
     </row>
     <row r="199">
@@ -14749,8 +16575,17 @@
       </c>
       <c r="T199" t="inlineStr">
         <is>
-          <t>trabajo</t>
-        </is>
+          <t>buen trabajo</t>
+        </is>
+      </c>
+      <c r="U199" t="n">
+        <v>14</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -14821,8 +16656,17 @@
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>taller clase metodologia evaluacion participacion tiempo entrega min parecer favorecer caso companero presentar problema computador internet</t>
-        </is>
+          <t>el taller en clase como metodología de evaluación y participación ser buen pero el tiempo de entrega min yo parecer que no favorecer porque en alguno caso el compañero poder presentar problema con su computador o internet</t>
+        </is>
+      </c>
+      <c r="U200" t="n">
+        <v>240</v>
+      </c>
+      <c r="V200" t="n">
+        <v>38</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0.8918918918918919</v>
       </c>
     </row>
     <row r="201">
@@ -14891,7 +16735,20 @@
       <c r="S201" t="n">
         <v>50</v>
       </c>
-      <c r="T201" t="inlineStr"/>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U201" t="n">
+        <v>7</v>
+      </c>
+      <c r="V201" t="n">
+        <v>1</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -14961,8 +16818,17 @@
       </c>
       <c r="T202" t="inlineStr">
         <is>
-          <t>ocasión dejar tiempo actividad dejar clase suceder parcial</t>
-        </is>
+          <t>ser mucho ocasión dejar mucho poco tiempo para realizar el actividad que dejar en clase y él mismo suceder en el parcial</t>
+        </is>
+      </c>
+      <c r="U202" t="n">
+        <v>124</v>
+      </c>
+      <c r="V202" t="n">
+        <v>22</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="203">
@@ -15020,7 +16886,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente clase. </t>
+          <t>Excelente clase.</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -15035,6 +16901,15 @@
         <is>
           <t>excelente clase</t>
         </is>
+      </c>
+      <c r="U203" t="n">
+        <v>16</v>
+      </c>
+      <c r="V203" t="n">
+        <v>2</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -15092,7 +16967,7 @@
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gran y pertinente apoyo para el desarrollo del proyecto. </t>
+          <t>Gran y pertinente apoyo para el desarrollo del proyecto.</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
@@ -15105,8 +16980,17 @@
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>pertinente apoyo desarrollo proyecto</t>
-        </is>
+          <t>gran y pertinente apoyo para el desarrollo del proyecto</t>
+        </is>
+      </c>
+      <c r="U204" t="n">
+        <v>56</v>
+      </c>
+      <c r="V204" t="n">
+        <v>9</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -15164,7 +17048,7 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente, comprensiva y con ganas de que sus estudiantes aprendan </t>
+          <t>Excelente docente, comprensiva y con ganas de que sus estudiantes aprendan</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -15177,8 +17061,17 @@
       </c>
       <c r="T205" t="inlineStr">
         <is>
-          <t>excelente docente comprensivo gana estudiante aprendar</t>
-        </is>
+          <t>excelente docente comprensivo y con gana de que su estudiante aprender</t>
+        </is>
+      </c>
+      <c r="U205" t="n">
+        <v>74</v>
+      </c>
+      <c r="V205" t="n">
+        <v>11</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -15249,8 +17142,17 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>amplio conocimiento tema ligado asignatura</t>
-        </is>
+          <t>tener uno amplio conocimiento de el tema a el cual este ligado el asignatura</t>
+        </is>
+      </c>
+      <c r="U206" t="n">
+        <v>80</v>
+      </c>
+      <c r="V206" t="n">
+        <v>14</v>
+      </c>
+      <c r="W206" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="207">
@@ -15321,8 +17223,17 @@
       </c>
       <c r="T207" t="inlineStr">
         <is>
-          <t>amplio conocimiento tema ligado asignatura</t>
-        </is>
+          <t>tener uno amplio conocimiento de el tema a el cual este ligado el asignatura</t>
+        </is>
+      </c>
+      <c r="U207" t="n">
+        <v>80</v>
+      </c>
+      <c r="V207" t="n">
+        <v>14</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="208">
@@ -15393,8 +17304,17 @@
       </c>
       <c r="T208" t="inlineStr">
         <is>
-          <t>excelente profesora evidenciar compromiso profesion</t>
-        </is>
+          <t>excelente profesora él evidenciar el compromiso con su profesión</t>
+        </is>
+      </c>
+      <c r="U208" t="n">
+        <v>64</v>
+      </c>
+      <c r="V208" t="n">
+        <v>9</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -15452,7 +17372,7 @@
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muy buena docentes una de las mejores que me ha tocado en ls universidad </t>
+          <t>Muy buena docentes una de las mejores que me ha tocado en ls universidad</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
@@ -15465,8 +17385,17 @@
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t>docente mejor tocar ls universidad</t>
-        </is>
+          <t>mucho buen docente uno de el mejor que yo haber tocar en ls universidad</t>
+        </is>
+      </c>
+      <c r="U209" t="n">
+        <v>72</v>
+      </c>
+      <c r="V209" t="n">
+        <v>14</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -15524,7 +17453,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t xml:space="preserve">La profesora Dora Luz, hace muy buena labor en ambos énfasis </t>
+          <t>La profesora Dora Luz, hace muy buena labor en ambos énfasis</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
@@ -15537,8 +17466,17 @@
       </c>
       <c r="T210" t="inlineStr">
         <is>
-          <t>profesora doro luz labor enfasis</t>
-        </is>
+          <t>el profesora dora luz hacer mucho buen labor en ambos énfasis</t>
+        </is>
+      </c>
+      <c r="U210" t="n">
+        <v>60</v>
+      </c>
+      <c r="V210" t="n">
+        <v>11</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -15609,8 +17547,17 @@
       </c>
       <c r="T211" t="inlineStr">
         <is>
-          <t>manejo curso didactica clase</t>
-        </is>
+          <t>gran manejo del curso el didáctica de el clase ser el mejor</t>
+        </is>
+      </c>
+      <c r="U211" t="n">
+        <v>60</v>
+      </c>
+      <c r="V211" t="n">
+        <v>12</v>
+      </c>
+      <c r="W211" t="n">
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="212">
@@ -15681,8 +17628,17 @@
       </c>
       <c r="T212" t="inlineStr">
         <is>
-          <t>profe bonito humano</t>
-        </is>
+          <t>mucho buen profe y bonito ser humano</t>
+        </is>
+      </c>
+      <c r="U212" t="n">
+        <v>35</v>
+      </c>
+      <c r="V212" t="n">
+        <v>7</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -15740,7 +17696,7 @@
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es un buen docente </t>
+          <t>Es un buen docente</t>
         </is>
       </c>
       <c r="R213" t="inlineStr">
@@ -15753,8 +17709,17 @@
       </c>
       <c r="T213" t="inlineStr">
         <is>
-          <t>docente</t>
-        </is>
+          <t>ser uno buen docente</t>
+        </is>
+      </c>
+      <c r="U213" t="n">
+        <v>18</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -15825,8 +17790,17 @@
       </c>
       <c r="T214" t="inlineStr">
         <is>
-          <t>profe amor aprendi clase</t>
-        </is>
+          <t>el profe ser uno amor aprender mucho en su clase</t>
+        </is>
+      </c>
+      <c r="U214" t="n">
+        <v>47</v>
+      </c>
+      <c r="V214" t="n">
+        <v>10</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -15897,8 +17871,17 @@
       </c>
       <c r="T215" t="inlineStr">
         <is>
-          <t>sugerir considerar teoria quimica i ii iii adicional sisi geociencia estudiante tener excelente base rama quimica lleguen preparado asignatura superior excelente disposicion</t>
-        </is>
+          <t>él sugerir que considerar dar teoría químico i ii o iii adicional a si1-si2 y geociencia para que el estudiante tener excelente base en ese rama de el química y lleguen preparado para el asignatura superior excelente disposición</t>
+        </is>
+      </c>
+      <c r="U215" t="n">
+        <v>248</v>
+      </c>
+      <c r="V215" t="n">
+        <v>38</v>
+      </c>
+      <c r="W215" t="n">
+        <v>0.8421052631578947</v>
       </c>
     </row>
     <row r="216">
@@ -15956,7 +17939,7 @@
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente </t>
+          <t>Excelente docente</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -15971,6 +17954,15 @@
         <is>
           <t>excelente docente</t>
         </is>
+      </c>
+      <c r="U216" t="n">
+        <v>17</v>
+      </c>
+      <c r="V216" t="n">
+        <v>2</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -16028,7 +18020,7 @@
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente metodología de trabajo. Gracias por El conocimiento impartido. </t>
+          <t>Excelente metodología de trabajo. Gracias por El conocimiento impartido.</t>
         </is>
       </c>
       <c r="R217" t="inlineStr">
@@ -16041,8 +18033,17 @@
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>excelente metodologia trabajo gracias conocimiento impartido</t>
-        </is>
+          <t>excelente metodología de trabajo gracias por el conocimiento impartido</t>
+        </is>
+      </c>
+      <c r="U217" t="n">
+        <v>72</v>
+      </c>
+      <c r="V217" t="n">
+        <v>9</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -16113,8 +18114,17 @@
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>maestrar gracia sabidurio paciencia ensenar excelencia pregrado haber ejemplo gracias profe yolanda</t>
-        </is>
+          <t>maestra mucho gracias por tu sabiduría paciencia y enseñar con excelencia desde el pregrado haber ser y ser uno gran ejemplo para mi gracias profe yolanda</t>
+        </is>
+      </c>
+      <c r="U218" t="n">
+        <v>160</v>
+      </c>
+      <c r="V218" t="n">
+        <v>27</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0.8846153846153846</v>
       </c>
     </row>
     <row r="219">
@@ -16172,7 +18182,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agradecimientos </t>
+          <t>Agradecimientos</t>
         </is>
       </c>
       <c r="R219" t="inlineStr">
@@ -16185,8 +18195,17 @@
       </c>
       <c r="T219" t="inlineStr">
         <is>
-          <t>agradecimiento</t>
-        </is>
+          <t>agradecimientos</t>
+        </is>
+      </c>
+      <c r="U219" t="n">
+        <v>15</v>
+      </c>
+      <c r="V219" t="n">
+        <v>1</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -16257,8 +18276,17 @@
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>docente poseer conocimiento amplio tema</t>
-        </is>
+          <t>buen docente poseer conocimiento amplio del tema</t>
+        </is>
+      </c>
+      <c r="U220" t="n">
+        <v>50</v>
+      </c>
+      <c r="V220" t="n">
+        <v>7</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -16329,8 +18357,17 @@
       </c>
       <c r="T221" t="inlineStr">
         <is>
-          <t>docente poseer conocimiento amplio tema</t>
-        </is>
+          <t>buen docente poseer conocimiento amplio del tema</t>
+        </is>
+      </c>
+      <c r="U221" t="n">
+        <v>50</v>
+      </c>
+      <c r="V221" t="n">
+        <v>7</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -16388,7 +18425,7 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>Excelente maestra, le interesa mucho que sus estudiantes aprendan, comprendan , se capaciten e  indaguen.</t>
+          <t>Excelente maestra, le interesa mucho que sus estudiantes aprendan, comprendan , se capaciten e indaguen.</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -16401,8 +18438,17 @@
       </c>
       <c r="T222" t="inlineStr">
         <is>
-          <t>excelente maestra interesar estudiante aprendar comprender capacitir indaguen</t>
-        </is>
+          <t>excelente maestra él interesar mucho que su estudiante aprender comprendan él capacitar e indaguen</t>
+        </is>
+      </c>
+      <c r="U222" t="n">
+        <v>104</v>
+      </c>
+      <c r="V222" t="n">
+        <v>15</v>
+      </c>
+      <c r="W222" t="n">
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="223">
@@ -16465,7 +18511,7 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="S223" t="n">
@@ -16475,6 +18521,15 @@
         <is>
           <t>excelente profesora</t>
         </is>
+      </c>
+      <c r="U223" t="n">
+        <v>19</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -16545,8 +18600,17 @@
       </c>
       <c r="T224" t="inlineStr">
         <is>
-          <t>gustar metodologia aplicar dejar trabajo considerar espacio academico</t>
-        </is>
+          <t>no yo gustar el metodologia que aplicar ademas dejar demasiado trabajo sin considerar que tener otro espacio académico</t>
+        </is>
+      </c>
+      <c r="U224" t="n">
+        <v>121</v>
+      </c>
+      <c r="V224" t="n">
+        <v>18</v>
+      </c>
+      <c r="W224" t="n">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="225">
@@ -16604,7 +18668,7 @@
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se sugiere mayor orden y organización en cuanto al manejo del espacio académico (en todos los aspectos).  </t>
+          <t>Se sugiere mayor orden y organización en cuanto al manejo del espacio académico (en todos los aspectos).</t>
         </is>
       </c>
       <c r="R225" t="inlineStr">
@@ -16617,8 +18681,17 @@
       </c>
       <c r="T225" t="inlineStr">
         <is>
-          <t>sugerir orden organizacion manejo espacio academico aspecto</t>
-        </is>
+          <t>él sugerir mayor orden y organización en cuanto al manejo del espacio académico en todo el aspecto</t>
+        </is>
+      </c>
+      <c r="U225" t="n">
+        <v>104</v>
+      </c>
+      <c r="V225" t="n">
+        <v>17</v>
+      </c>
+      <c r="W225" t="n">
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="226">
@@ -16676,7 +18749,7 @@
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>realmente el manejo de las temáticas por la docente  no contribuye al aprendizaje  en el aula</t>
+          <t>realmente el manejo de las temáticas por la docente no contribuye al aprendizaje en el aula</t>
         </is>
       </c>
       <c r="R226" t="inlineStr">
@@ -16689,8 +18762,17 @@
       </c>
       <c r="T226" t="inlineStr">
         <is>
-          <t>realmente manejo tematica docente contribuir aprendizaje aula</t>
-        </is>
+          <t>realmente el manejo de el temática por el docente no contribuir al aprendizaje en el aula</t>
+        </is>
+      </c>
+      <c r="U226" t="n">
+        <v>91</v>
+      </c>
+      <c r="V226" t="n">
+        <v>16</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="227">
@@ -16761,8 +18843,17 @@
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>admirar esfuerzo cambiariar forma asignacion trabajo confuso fecha entrega mes pplanificar demorar estudiante trabajo tendrar elemento reali</t>
-        </is>
+          <t>admirar su esfuerzo cambiar el forma de el asignación de trabajo ser mucho confuso que el primero día de fecha de entrega de mes después pplanificar cuanto él poder demorar uno estudiante en dicho trabajo y cuando tener elemento para su reali</t>
+        </is>
+      </c>
+      <c r="U227" t="n">
+        <v>250</v>
+      </c>
+      <c r="V227" t="n">
+        <v>43</v>
+      </c>
+      <c r="W227" t="n">
+        <v>0.8095238095238095</v>
       </c>
     </row>
     <row r="228">
@@ -16833,8 +18924,17 @@
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>profe organizado confundir estudiante claro calendario academico</t>
-        </is>
+          <t>el profe no ser organizar confundir a el estudiante y no ser claro con el calendario académico</t>
+        </is>
+      </c>
+      <c r="U228" t="n">
+        <v>98</v>
+      </c>
+      <c r="V228" t="n">
+        <v>17</v>
+      </c>
+      <c r="W228" t="n">
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="229">
@@ -16905,8 +19005,17 @@
       </c>
       <c r="T229" t="inlineStr">
         <is>
-          <t>pesimir organizacion nota actividad clase</t>
-        </is>
+          <t>pésima organización sobre el nota y actividad de clase</t>
+        </is>
+      </c>
+      <c r="U229" t="n">
+        <v>58</v>
+      </c>
+      <c r="V229" t="n">
+        <v>9</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -16977,8 +19086,17 @@
       </c>
       <c r="T230" t="inlineStr">
         <is>
-          <t>requerir previa organizacion sesión clase retroalimentacion actividad evaluado compartir nota actividad maximo semana actividad d</t>
-        </is>
+          <t>él requerir de uno previo organización de el sesión de clase uno retroalimentación de cada actividad evaluado y compartir el nota de cada actividad máximo a el semana siguiente de el actividad d</t>
+        </is>
+      </c>
+      <c r="U230" t="n">
+        <v>201</v>
+      </c>
+      <c r="V230" t="n">
+        <v>33</v>
+      </c>
+      <c r="W230" t="n">
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="231">
@@ -17049,8 +19167,17 @@
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>docente presentar organizacion claro invitacion seguir capacitar él teams</t>
-        </is>
+          <t>el docente no presentar uno organización claro a su vez él él hacer uno invitación a seguir capacitar él en el uso de teams u otro</t>
+        </is>
+      </c>
+      <c r="U231" t="n">
+        <v>132</v>
+      </c>
+      <c r="V231" t="n">
+        <v>25</v>
+      </c>
+      <c r="W231" t="n">
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="232">
@@ -17108,7 +19235,7 @@
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es relevante tener un seguimiento continuo sobre los estudiantes en formación, el docente dictaba los temas a base de videos sin una profundización del tema. </t>
+          <t>Es relevante tener un seguimiento continuo sobre los estudiantes en formación, el docente dictaba los temas a base de videos sin una profundización del tema.</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
@@ -17121,8 +19248,17 @@
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>relevante seguimiento continuo estudiante formacion docente dictar tema base video profundizacion tema</t>
-        </is>
+          <t>ser relevante tener uno seguimiento continuo sobre el estudiante en formación el docente dictar el tema a base de video sin uno profundización del tema</t>
+        </is>
+      </c>
+      <c r="U232" t="n">
+        <v>157</v>
+      </c>
+      <c r="V232" t="n">
+        <v>25</v>
+      </c>
+      <c r="W232" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="233">
@@ -17180,7 +19316,7 @@
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es relevante tener un seguimiento continuo sobre los estudiantes en formación, el docente dictaba los temas a base de videos sin una profundización del tema. </t>
+          <t>Es relevante tener un seguimiento continuo sobre los estudiantes en formación, el docente dictaba los temas a base de videos sin una profundización del tema.</t>
         </is>
       </c>
       <c r="R233" t="inlineStr">
@@ -17193,8 +19329,17 @@
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>relevante seguimiento continuo estudiante formacion docente dictar tema base video profundizacion tema</t>
-        </is>
+          <t>ser relevante tener uno seguimiento continuo sobre el estudiante en formación el docente dictar el tema a base de video sin uno profundización del tema</t>
+        </is>
+      </c>
+      <c r="U233" t="n">
+        <v>157</v>
+      </c>
+      <c r="V233" t="n">
+        <v>25</v>
+      </c>
+      <c r="W233" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="234">
@@ -17252,7 +19397,7 @@
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presentar más orden en las actividades, debido a que al final del semestre se realizan muchas conjunciones respecto a notas y  trabajos </t>
+          <t>Presentar más orden en las actividades, debido a que al final del semestre se realizan muchas conjunciones respecto a notas y trabajos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -17265,8 +19410,17 @@
       </c>
       <c r="T234" t="inlineStr">
         <is>
-          <t>presentar orden actividad semestre realizar conjunción nota trabajo</t>
-        </is>
+          <t>presentar más orden en el actividad debido a que al final del semestre él realizar mucho conjunción respecto a nota y trabajo</t>
+        </is>
+      </c>
+      <c r="U234" t="n">
+        <v>134</v>
+      </c>
+      <c r="V234" t="n">
+        <v>22</v>
+      </c>
+      <c r="W234" t="n">
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="235">
@@ -17337,8 +19491,17 @@
       </c>
       <c r="T235" t="inlineStr">
         <is>
-          <t>docente desorden tenaz nota actitud momento presentar inquietud completament odiós reclamar nota comentar problema internet importar penar califiquelar</t>
-        </is>
+          <t>el docente tener uno desorden tenaz con nota su actitud al momento de uno presentar alguno inquietud ser completament odiós si uno reclamar por alguno nota o comentar que tener problema de internet no él importar o decir que pena yo ya califique.la</t>
+        </is>
+      </c>
+      <c r="U235" t="n">
+        <v>247</v>
+      </c>
+      <c r="V235" t="n">
+        <v>43</v>
+      </c>
+      <c r="W235" t="n">
+        <v>0.813953488372093</v>
       </c>
     </row>
     <row r="236">
@@ -17396,7 +19559,7 @@
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Falta un poco de retroalimentación en los parciales </t>
+          <t>Falta un poco de retroalimentación en los parciales</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -17409,8 +19572,17 @@
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>faltar retroalimentacion parcial</t>
-        </is>
+          <t>faltar uno poco de retroalimentación en el parcial</t>
+        </is>
+      </c>
+      <c r="U236" t="n">
+        <v>51</v>
+      </c>
+      <c r="V236" t="n">
+        <v>8</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -17468,7 +19640,7 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t xml:space="preserve">La profesora se pierde cuando está explicando un tema </t>
+          <t>La profesora se pierde cuando está explicando un tema</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -17481,8 +19653,17 @@
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>profesora perder explicar tema</t>
-        </is>
+          <t>el profesora él perder cuando estar explicar uno tema</t>
+        </is>
+      </c>
+      <c r="U237" t="n">
+        <v>53</v>
+      </c>
+      <c r="V237" t="n">
+        <v>9</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -17553,8 +19734,17 @@
       </c>
       <c r="T238" t="inlineStr">
         <is>
-          <t>estefania nieve torre docente cargo</t>
-        </is>
+          <t>estefanía nieves torres ser el docente a cargo</t>
+        </is>
+      </c>
+      <c r="U238" t="n">
+        <v>47</v>
+      </c>
+      <c r="V238" t="n">
+        <v>8</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -17625,8 +19815,17 @@
       </c>
       <c r="T239" t="inlineStr">
         <is>
-          <t>docente estefania nieve</t>
-        </is>
+          <t>docente estefanía nieves</t>
+        </is>
+      </c>
+      <c r="U239" t="n">
+        <v>24</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -17684,7 +19883,7 @@
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Docente: Estefania Nieves Torres </t>
+          <t>Docente: Estefania Nieves Torres</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -17697,8 +19896,17 @@
       </c>
       <c r="T240" t="inlineStr">
         <is>
-          <t>docente estefania nieve torre</t>
-        </is>
+          <t>docente estefania nieves torres</t>
+        </is>
+      </c>
+      <c r="U240" t="n">
+        <v>32</v>
+      </c>
+      <c r="V240" t="n">
+        <v>4</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -17769,8 +19977,17 @@
       </c>
       <c r="T241" t="inlineStr">
         <is>
-          <t>estefania nieve</t>
-        </is>
+          <t>estefanía nieves</t>
+        </is>
+      </c>
+      <c r="U241" t="n">
+        <v>16</v>
+      </c>
+      <c r="V241" t="n">
+        <v>2</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -17828,7 +20045,7 @@
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estefanía </t>
+          <t>Estefanía</t>
         </is>
       </c>
       <c r="R242" t="inlineStr">
@@ -17841,8 +20058,17 @@
       </c>
       <c r="T242" t="inlineStr">
         <is>
-          <t>estefania</t>
-        </is>
+          <t>estefanía</t>
+        </is>
+      </c>
+      <c r="U242" t="n">
+        <v>9</v>
+      </c>
+      <c r="V242" t="n">
+        <v>1</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -17900,7 +20126,7 @@
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente, se nota que le gusta enseñar y conoce muy bien esta segunda lengua, es un modelo a seguir. </t>
+          <t>Excelente docente, se nota que le gusta enseñar y conoce muy bien esta segunda lengua, es un modelo a seguir.</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -17913,8 +20139,17 @@
       </c>
       <c r="T243" t="inlineStr">
         <is>
-          <t>excelente docente notar gustar ensenar conocer lengua modelo seguir</t>
-        </is>
+          <t>excelente docente él notar que él gustar enseñar y conocer mucho bien este segundo lengua ser uno modelo a seguir</t>
+        </is>
+      </c>
+      <c r="U243" t="n">
+        <v>109</v>
+      </c>
+      <c r="V243" t="n">
+        <v>20</v>
+      </c>
+      <c r="W243" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="244">
@@ -17985,8 +20220,17 @@
       </c>
       <c r="T244" t="inlineStr">
         <is>
-          <t>docente toma asistencia semestre terminar asistir persona demas</t>
-        </is>
+          <t>el docente no hacer toma de asistencia por él al final del semestre terminar asistir persona de por él demá bien</t>
+        </is>
+      </c>
+      <c r="U244" t="n">
+        <v>127</v>
+      </c>
+      <c r="V244" t="n">
+        <v>23</v>
+      </c>
+      <c r="W244" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="245">
@@ -18057,8 +20301,17 @@
       </c>
       <c r="T245" t="inlineStr">
         <is>
-          <t>utilizar forma ensenanza limitar estudant</t>
-        </is>
+          <t>utilizar otro forma de enseñanza que no limitar a el estudant</t>
+        </is>
+      </c>
+      <c r="U245" t="n">
+        <v>67</v>
+      </c>
+      <c r="V245" t="n">
+        <v>11</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -18116,7 +20369,7 @@
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente profesora , sin embargo deberia ser más dinamica </t>
+          <t>Excelente profesora , sin embargo deberia ser más dinamica</t>
         </is>
       </c>
       <c r="R246" t="inlineStr">
@@ -18129,8 +20382,17 @@
       </c>
       <c r="T246" t="inlineStr">
         <is>
-          <t>excelente profesora deberio dinamicar</t>
-        </is>
+          <t>excelente profesora sin embargo deberia ser más dinamico</t>
+        </is>
+      </c>
+      <c r="U246" t="n">
+        <v>58</v>
+      </c>
+      <c r="V246" t="n">
+        <v>9</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -18201,8 +20463,17 @@
       </c>
       <c r="T247" t="inlineStr">
         <is>
-          <t>manejar tematica curso distribucion tematica tiempo dado terminar apresure acabar tematica velar ensenanza estudiante</t>
-        </is>
+          <t>manejar bien el temática del curso pero no tener en cuenta el distribución de temática en el tiempo dado y terminar ser uno apresure por acabar temática que por velar por el enseñanza del estudiante</t>
+        </is>
+      </c>
+      <c r="U247" t="n">
+        <v>203</v>
+      </c>
+      <c r="V247" t="n">
+        <v>35</v>
+      </c>
+      <c r="W247" t="n">
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="248">
@@ -18260,7 +20531,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente profesora </t>
+          <t>Excelente profesora</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -18275,6 +20546,15 @@
         <is>
           <t>excelente profesora</t>
         </is>
+      </c>
+      <c r="U248" t="n">
+        <v>19</v>
+      </c>
+      <c r="V248" t="n">
+        <v>2</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -18345,8 +20625,17 @@
       </c>
       <c r="T249" t="inlineStr">
         <is>
-          <t>clase esencia teorica senti necesario entender fundamento aplicacion vida real ensenar</t>
-        </is>
+          <t>su clase en esencia ser teórico sin embargo sentir necesario mucho vez entender el fundamento y el aplicación en el vida real de él que yo enseñar</t>
+        </is>
+      </c>
+      <c r="U249" t="n">
+        <v>155</v>
+      </c>
+      <c r="V249" t="n">
+        <v>27</v>
+      </c>
+      <c r="W249" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="250">
@@ -18404,7 +20693,7 @@
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aunque tiene muchos conocimientos y los sabe enseñar, cuando se le hace una pregunta responde de manera sarcástica asumiendo que el estudiante tiene todos los conocimientos </t>
+          <t>Aunque tiene muchos conocimientos y los sabe enseñar, cuando se le hace una pregunta responde de manera sarcástica asumiendo que el estudiante tiene todos los conocimientos</t>
         </is>
       </c>
       <c r="R250" t="inlineStr">
@@ -18417,8 +20706,17 @@
       </c>
       <c r="T250" t="inlineStr">
         <is>
-          <t>conocimiento ensenar pregunta responder sarcastico asumir estudiante conocimiento</t>
-        </is>
+          <t>aunque tener mucho conocimiento y él saber enseñar cuando él él hacer uno pregunta responder de manera sarcástico asumir que el estudiante tener todo el conocimiento</t>
+        </is>
+      </c>
+      <c r="U250" t="n">
+        <v>172</v>
+      </c>
+      <c r="V250" t="n">
+        <v>26</v>
+      </c>
+      <c r="W250" t="n">
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="251">
@@ -18476,7 +20774,7 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una excelente apropiación de los temas. </t>
+          <t>Una excelente apropiación de los temas.</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
@@ -18489,8 +20787,17 @@
       </c>
       <c r="T251" t="inlineStr">
         <is>
-          <t>excelente apropiacion tema</t>
-        </is>
+          <t>uno excelente apropiación de el tema</t>
+        </is>
+      </c>
+      <c r="U251" t="n">
+        <v>39</v>
+      </c>
+      <c r="V251" t="n">
+        <v>6</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -18561,8 +20868,17 @@
       </c>
       <c r="T252" t="inlineStr">
         <is>
-          <t>agradecimiento</t>
-        </is>
+          <t>agradecimientos</t>
+        </is>
+      </c>
+      <c r="U252" t="n">
+        <v>15</v>
+      </c>
+      <c r="V252" t="n">
+        <v>1</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -18631,7 +20947,20 @@
       <c r="S253" t="n">
         <v>48.6</v>
       </c>
-      <c r="T253" t="inlineStr"/>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U253" t="n">
+        <v>7</v>
+      </c>
+      <c r="V253" t="n">
+        <v>1</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -18701,8 +21030,17 @@
       </c>
       <c r="T254" t="inlineStr">
         <is>
-          <t>materia interesante desarrollo plantear docente carol gratificante desarrollo</t>
-        </is>
+          <t>el materia ser mucho interesante pero por el desarrollo que plantear el docente carol estar no ser mucho gratificante para el desarrollo</t>
+        </is>
+      </c>
+      <c r="U254" t="n">
+        <v>128</v>
+      </c>
+      <c r="V254" t="n">
+        <v>22</v>
+      </c>
+      <c r="W254" t="n">
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="255">
@@ -18760,7 +21098,7 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Me gustaría que el profesor no olvide nuestras sesiones de encuentro para realizar las retroalimentaciones </t>
+          <t>Me gustaría que el profesor no olvide nuestras sesiones de encuentro para realizar las retroalimentaciones</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -18773,8 +21111,17 @@
       </c>
       <c r="T255" t="inlineStr">
         <is>
-          <t>gustariar profesor olvidar sesión encuentro retroalimentación</t>
-        </is>
+          <t>yo gustar que el profesor no olvidar nuestro sesión de encuentro para realizar el retroalimentación</t>
+        </is>
+      </c>
+      <c r="U255" t="n">
+        <v>106</v>
+      </c>
+      <c r="V255" t="n">
+        <v>15</v>
+      </c>
+      <c r="W255" t="n">
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="256">
@@ -18832,7 +21179,7 @@
       </c>
       <c r="Q256" t="inlineStr">
         <is>
-          <t xml:space="preserve">excelente docente </t>
+          <t>excelente docente</t>
         </is>
       </c>
       <c r="R256" t="inlineStr">
@@ -18847,6 +21194,15 @@
         <is>
           <t>excelente docente</t>
         </is>
+      </c>
+      <c r="U256" t="n">
+        <v>17</v>
+      </c>
+      <c r="V256" t="n">
+        <v>2</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -18917,8 +21273,17 @@
       </c>
       <c r="T257" t="inlineStr">
         <is>
-          <t>leo propuesta proyecto permitir orientacion acertado</t>
-        </is>
+          <t>no leo el propuesta de el proyecto él que no permitir uno orientación mucho acertado</t>
+        </is>
+      </c>
+      <c r="U257" t="n">
+        <v>84</v>
+      </c>
+      <c r="V257" t="n">
+        <v>15</v>
+      </c>
+      <c r="W257" t="n">
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="258">
@@ -18989,8 +21354,17 @@
       </c>
       <c r="T258" t="inlineStr">
         <is>
-          <t>articulacion quimico didactica</t>
-        </is>
+          <t>buen articulación de él quimico desde el didáctica</t>
+        </is>
+      </c>
+      <c r="U258" t="n">
+        <v>52</v>
+      </c>
+      <c r="V258" t="n">
+        <v>8</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -19048,7 +21422,7 @@
       </c>
       <c r="Q259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agradecimientos </t>
+          <t>Agradecimientos</t>
         </is>
       </c>
       <c r="R259" t="inlineStr">
@@ -19061,8 +21435,17 @@
       </c>
       <c r="T259" t="inlineStr">
         <is>
-          <t>agradecimiento</t>
-        </is>
+          <t>agradecimientos</t>
+        </is>
+      </c>
+      <c r="U259" t="n">
+        <v>15</v>
+      </c>
+      <c r="V259" t="n">
+        <v>1</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -19133,8 +21516,17 @@
       </c>
       <c r="T260" t="inlineStr">
         <is>
-          <t>excelente didactica utilizado profesora</t>
-        </is>
+          <t>excelente el didáctica utilizado por el profesora</t>
+        </is>
+      </c>
+      <c r="U260" t="n">
+        <v>50</v>
+      </c>
+      <c r="V260" t="n">
+        <v>7</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="261">
@@ -19205,8 +21597,17 @@
       </c>
       <c r="T261" t="inlineStr">
         <is>
-          <t>confundir nombre estudiante</t>
-        </is>
+          <t>no confundir el nombre de el estudiante</t>
+        </is>
+      </c>
+      <c r="U261" t="n">
+        <v>43</v>
+      </c>
+      <c r="V261" t="n">
+        <v>7</v>
+      </c>
+      <c r="W261" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="262">
@@ -19264,7 +21665,7 @@
       </c>
       <c r="Q262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dejar mas lecturas sobre a los estudiantes, para que ellos leguen con bases para realizar discuciones en grupo  </t>
+          <t>Dejar mas lecturas sobre a los estudiantes, para que ellos leguen con bases para realizar discuciones en grupo</t>
         </is>
       </c>
       <c r="R262" t="inlineStr">
@@ -19277,8 +21678,17 @@
       </c>
       <c r="T262" t="inlineStr">
         <is>
-          <t>dejar lectura estudiante legar base discución grupo</t>
-        </is>
+          <t>dejar mas lectura sobre a el estudiante para que él legar con base para realizar discución en grupo</t>
+        </is>
+      </c>
+      <c r="U262" t="n">
+        <v>110</v>
+      </c>
+      <c r="V262" t="n">
+        <v>18</v>
+      </c>
+      <c r="W262" t="n">
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="263">
@@ -19349,8 +21759,17 @@
       </c>
       <c r="T263" t="inlineStr">
         <is>
-          <t>docente manejo tematica tratar curso invito docente mejorar metodo ensenanza comprender valorar circunstancia enfrentar estudiante falta computador etc</t>
-        </is>
+          <t>si bien el docente tener manejo de el tematica a tratar en el curso invitar a que el docente mejorar el el metodo de enseñanza además de comprender y valorar el circunstancia a el cual él enfrentar uno estudiante como falta de computador etc.</t>
+        </is>
+      </c>
+      <c r="U263" t="n">
+        <v>250</v>
+      </c>
+      <c r="V263" t="n">
+        <v>44</v>
+      </c>
+      <c r="W263" t="n">
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="264">
@@ -19421,8 +21840,17 @@
       </c>
       <c r="T264" t="inlineStr">
         <is>
-          <t>lograr cumplir tematica propuesto inicio semestre</t>
-        </is>
+          <t>si él lograr cumplir con todo el temática propuesto al inicio de semestre</t>
+        </is>
+      </c>
+      <c r="U264" t="n">
+        <v>76</v>
+      </c>
+      <c r="V264" t="n">
+        <v>13</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -19493,8 +21921,17 @@
       </c>
       <c r="T265" t="inlineStr">
         <is>
-          <t>bajar ritmo tematica explicación</t>
-        </is>
+          <t>bajar uno poco el ritmo a el temática y el explicación</t>
+        </is>
+      </c>
+      <c r="U265" t="n">
+        <v>59</v>
+      </c>
+      <c r="V265" t="n">
+        <v>11</v>
+      </c>
+      <c r="W265" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="266">
@@ -19563,7 +22000,20 @@
       <c r="S266" t="n">
         <v>44.5</v>
       </c>
-      <c r="T266" t="inlineStr"/>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U266" t="n">
+        <v>7</v>
+      </c>
+      <c r="V266" t="n">
+        <v>1</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -19633,8 +22083,17 @@
       </c>
       <c r="T267" t="inlineStr">
         <is>
-          <t>gusto metodologia ensenanza cosa corregir ocasión apresurar sacar tema quedar duda relacion tema abarcado</t>
-        </is>
+          <t>yo gustar su metodología de enseñanza mas haber alguno cosa que él poder corregir pues en ocasión él apresurar para sacar uno tema adelante y quedar duda con relación al tema abarcado</t>
+        </is>
+      </c>
+      <c r="U267" t="n">
+        <v>186</v>
+      </c>
+      <c r="V267" t="n">
+        <v>32</v>
+      </c>
+      <c r="W267" t="n">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="268">
@@ -19705,8 +22164,17 @@
       </c>
       <c r="T268" t="inlineStr">
         <is>
-          <t>tutoria</t>
-        </is>
+          <t>no él hacer tutoria</t>
+        </is>
+      </c>
+      <c r="U268" t="n">
+        <v>18</v>
+      </c>
+      <c r="V268" t="n">
+        <v>4</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -19777,8 +22245,17 @@
       </c>
       <c r="T269" t="inlineStr">
         <is>
-          <t>considerar explicar rapido explicar tema comenzar rapido confundierar tema tenio teniamos conocimiento base faltatutoria</t>
-        </is>
+          <t>considerar que el manera que explicar ser mucho rápido ya que explicar uno tema y comenzar el otro mucho rápido este hacia que él confundir uno tema con otro tampoco tenia en cuenta que todo no tener el conocimiento y buena base hizo faltatutorias</t>
+        </is>
+      </c>
+      <c r="U269" t="n">
+        <v>250</v>
+      </c>
+      <c r="V269" t="n">
+        <v>44</v>
+      </c>
+      <c r="W269" t="n">
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="270">
@@ -19849,8 +22326,17 @@
       </c>
       <c r="T270" t="inlineStr">
         <is>
-          <t>excelente docente metodologia desarrollo clase considerar entender dispuesto resolver duda</t>
-        </is>
+          <t>yo parecer que ser uno excelente docente el metodología que usar para el desarrollo de el clase ser mucho buen ya que considerar que él él entender todo y siempre estar dispuesto a resolver nuestro duda</t>
+        </is>
+      </c>
+      <c r="U270" t="n">
+        <v>200</v>
+      </c>
+      <c r="V270" t="n">
+        <v>36</v>
+      </c>
+      <c r="W270" t="n">
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="271">
@@ -19908,12 +22394,12 @@
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t xml:space="preserve">excelente profe </t>
+          <t>excelente profe</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>pt</t>
+          <t>ro</t>
         </is>
       </c>
       <c r="S271" t="n">
@@ -19923,6 +22409,15 @@
         <is>
           <t>excelente profe</t>
         </is>
+      </c>
+      <c r="U271" t="n">
+        <v>15</v>
+      </c>
+      <c r="V271" t="n">
+        <v>2</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -19993,8 +22488,17 @@
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t>acertado enriquecedor preparado poder cambiar seriar peso evaluación docente representar conocimiento nee estudiante</t>
-        </is>
+          <t>mucho acertado enriquecedor y bien preparado si poder cambiar algo ser el peso de el evaluación ya que como docente él saber que estar no representar el conocimiento near uno estudiante</t>
+        </is>
+      </c>
+      <c r="U272" t="n">
+        <v>191</v>
+      </c>
+      <c r="V272" t="n">
+        <v>31</v>
+      </c>
+      <c r="W272" t="n">
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="273">
@@ -20065,8 +22569,17 @@
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>cancele asignatura</t>
-        </is>
+          <t>cancelé el asignatura</t>
+        </is>
+      </c>
+      <c r="U273" t="n">
+        <v>21</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -20124,7 +22637,7 @@
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gran conocimiento disciplinar y magistral cátedra. </t>
+          <t>Gran conocimiento disciplinar y magistral cátedra.</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -20137,8 +22650,17 @@
       </c>
       <c r="T274" t="inlineStr">
         <is>
-          <t>conocimiento disciplinar magistral catedro</t>
-        </is>
+          <t>gran conocimiento disciplinar y magistral cátedra</t>
+        </is>
+      </c>
+      <c r="U274" t="n">
+        <v>50</v>
+      </c>
+      <c r="V274" t="n">
+        <v>6</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -20207,7 +22729,20 @@
       <c r="S275" t="n">
         <v>49.8</v>
       </c>
-      <c r="T275" t="inlineStr"/>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U275" t="n">
+        <v>7</v>
+      </c>
+      <c r="V275" t="n">
+        <v>1</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -20264,7 +22799,7 @@
       </c>
       <c r="Q276" t="inlineStr">
         <is>
-          <t xml:space="preserve">dadas las circunstancias de trabajo remoto, considero que el docente deberia presentar un poco de flexibilidad en la subida de los trabajos ya que aspectos como la calidad del internet, problemas de la plataforma y algunos otros impiden el desarroll </t>
+          <t>dadas las circunstancias de trabajo remoto, considero que el docente deberia presentar un poco de flexibilidad en la subida de los trabajos ya que aspectos como la calidad del internet, problemas de la plataforma y algunos otros impiden el desarroll</t>
         </is>
       </c>
       <c r="R276" t="inlineStr">
@@ -20277,8 +22812,17 @@
       </c>
       <c r="T276" t="inlineStr">
         <is>
-          <t>dar circunstancia trabajo remoto considerar docente deberio presentar flexibilidad subida trabajo aspecto calidad internet problema plataforma impedir desarroll</t>
-        </is>
+          <t>dar el circunstancia de trabajo remoto considerar que el docente deberiar presentar uno poco de flexibilidad en el subida de el trabajo ya que aspecto como el calidad del internet problema de el plataforma y alguno otro impedir el desarroll</t>
+        </is>
+      </c>
+      <c r="U276" t="n">
+        <v>249</v>
+      </c>
+      <c r="V276" t="n">
+        <v>40</v>
+      </c>
+      <c r="W276" t="n">
+        <v>0.725</v>
       </c>
     </row>
     <row r="277">
@@ -20349,8 +22893,17 @@
       </c>
       <c r="T277" t="inlineStr">
         <is>
-          <t>dar circunstancia trabajo remoto considerar docente deberio presentar flexibilidad subida trabajo aspecto calidad internet problema plataforma softwar ameritar</t>
-        </is>
+          <t>dar el circunstancia de trabajo remoto considerar que el docente deberiar presentar uno poco de flexibilidad en el subida de el trabajo ya que aspecto como el calidad del internet problema de el plataforma softwares él ameritar</t>
+        </is>
+      </c>
+      <c r="U277" t="n">
+        <v>236</v>
+      </c>
+      <c r="V277" t="n">
+        <v>37</v>
+      </c>
+      <c r="W277" t="n">
+        <v>0.7297297297297297</v>
       </c>
     </row>
     <row r="278">
@@ -20421,8 +22974,17 @@
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>profesora q q persona firmar persona habilidad pedagogica q ayudar proceso aprendizaje</t>
-        </is>
+          <t>el mejor profesora q mas q ese ser persona y ese hacer firmar persona tener mucho habilidad pedagógico q ayudar en el proceso de aprendizaje</t>
+        </is>
+      </c>
+      <c r="U278" t="n">
+        <v>145</v>
+      </c>
+      <c r="V278" t="n">
+        <v>25</v>
+      </c>
+      <c r="W278" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="279">
@@ -20480,7 +23042,7 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>La docente en el semestre no enseño los temas propuestos que están  en el programa ya que todo el tiempo asumía que los estudiantes ya lo sabíamos cosa que me aparece algo absurdo, por otra parte no nos envío las notas de los trabajos presentados.</t>
+          <t>La docente en el semestre no enseño los temas propuestos que están en el programa ya que todo el tiempo asumía que los estudiantes ya lo sabíamos cosa que me aparece algo absurdo, por otra parte no nos envío las notas de los trabajos presentados.</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -20493,8 +23055,17 @@
       </c>
       <c r="T279" t="inlineStr">
         <is>
-          <t>docente semestre ensenir tema propuesto programa tiempo asumir estudiante sabiar cosa aparecer absurdo enviar nota trabajo presentado</t>
-        </is>
+          <t>el docente en el semestre no enseñar el tema propuesto que estar en el programa ya que todo el tiempo asumía que el estudiante ya él saber cosa que yo aparecer algo absurdo por otro parte no yo envío el nota de el trabajo presentado</t>
+        </is>
+      </c>
+      <c r="U279" t="n">
+        <v>246</v>
+      </c>
+      <c r="V279" t="n">
+        <v>45</v>
+      </c>
+      <c r="W279" t="n">
+        <v>0.6888888888888889</v>
       </c>
     </row>
     <row r="280">
@@ -20552,7 +23123,7 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>Se evidencia falta de orden a la hora de calificar actividades, hace la clase dividiendo el tema a ver entre  los alumnos que hacen exposiciones, da por hecho que los temas se saben cuando deben ser vistos en el semestre, terrible ejemplo como profe.</t>
+          <t>Se evidencia falta de orden a la hora de calificar actividades, hace la clase dividiendo el tema a ver entre los alumnos que hacen exposiciones, da por hecho que los temas se saben cuando deben ser vistos en el semestre, terrible ejemplo como profe.</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
@@ -20565,8 +23136,17 @@
       </c>
       <c r="T280" t="inlineStr">
         <is>
-          <t>evidenciar falta orden hora calificar actividad clase dividir tema alumno exposición tema ver semestre terrible ejemplo profe</t>
-        </is>
+          <t>él evidenciar falta de orden a el hora de calificar actividad hacer el clase dividir el tema a ver entre el alumno que hacer exposición dar por hecho que el tema él saber cuando deber ser ver en el semestre terrible ejemplo como profe</t>
+        </is>
+      </c>
+      <c r="U280" t="n">
+        <v>249</v>
+      </c>
+      <c r="V280" t="n">
+        <v>44</v>
+      </c>
+      <c r="W280" t="n">
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="281">
@@ -20624,7 +23204,7 @@
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hacer muestra de las notas que llevamos durante el semestre, con el fin de que los estudiantes esten al tanto de su proceso de aprendizaje. También que haya una mejor aclaridad con las actividad que se proponente en clase </t>
+          <t>Hacer muestra de las notas que llevamos durante el semestre, con el fin de que los estudiantes esten al tanto de su proceso de aprendizaje. También que haya una mejor aclaridad con las actividad que se proponente en clase</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -20637,8 +23217,17 @@
       </c>
       <c r="T281" t="inlineStr">
         <is>
-          <t>muestra nota llevar semestre estudiante estir proceso aprendizaje aclaridad actividad proponentar clase</t>
-        </is>
+          <t>hacer muestra de el nota que llevar durante el semestre con el fin de que el estudiante estir al tanto de su proceso de aprendizaje también que haber uno mejor aclaridad con el actividad que él proponentar en clase</t>
+        </is>
+      </c>
+      <c r="U281" t="n">
+        <v>221</v>
+      </c>
+      <c r="V281" t="n">
+        <v>39</v>
+      </c>
+      <c r="W281" t="n">
+        <v>0.717948717948718</v>
       </c>
     </row>
     <row r="282">
@@ -20696,7 +23285,7 @@
       </c>
       <c r="Q282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente maestra, aunque se trabajo con mucha plastilina y dada la situación actual considero que se pude reemplazar por la implementación de software para modelado </t>
+          <t>Excelente maestra, aunque se trabajo con mucha plastilina y dada la situación actual considero que se pude reemplazar por la implementación de software para modelado</t>
         </is>
       </c>
       <c r="R282" t="inlineStr">
@@ -20709,8 +23298,17 @@
       </c>
       <c r="T282" t="inlineStr">
         <is>
-          <t>excelente maestra trabajar plastilina dar situacion actual considerar poder reemplazar implementacion software modelar</t>
-        </is>
+          <t>excelente maestra aunque él trabajar con mucho plastilina y dar el situación actual considerar que él poder reemplazar por el implementación de software para modelado</t>
+        </is>
+      </c>
+      <c r="U282" t="n">
+        <v>165</v>
+      </c>
+      <c r="V282" t="n">
+        <v>25</v>
+      </c>
+      <c r="W282" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="283">
@@ -20781,8 +23379,17 @@
       </c>
       <c r="T283" t="inlineStr">
         <is>
-          <t>poner exponer semestre modelo pedagogico</t>
-        </is>
+          <t>solo yo poner a exponer todo el semestre el modelo pedagógico</t>
+        </is>
+      </c>
+      <c r="U283" t="n">
+        <v>64</v>
+      </c>
+      <c r="V283" t="n">
+        <v>11</v>
+      </c>
+      <c r="W283" t="n">
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="284">
@@ -20840,7 +23447,7 @@
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t xml:space="preserve">El curso en general fue muy completo, sin embargo creo que falto un poco mas de organizacion respecto a la metodologia a usar y el modo de evaluar. </t>
+          <t>El curso en general fue muy completo, sin embargo creo que falto un poco mas de organizacion respecto a la metodologia a usar y el modo de evaluar.</t>
         </is>
       </c>
       <c r="R284" t="inlineStr">
@@ -20853,8 +23460,17 @@
       </c>
       <c r="T284" t="inlineStr">
         <is>
-          <t>curso general completo faltar organizacion metodologia evaluar</t>
-        </is>
+          <t>el curso en general ser mucho completo sin embargo creer que falto uno poco mas de organizacion respecto a el metodologia a usar y el modo de evaluar</t>
+        </is>
+      </c>
+      <c r="U284" t="n">
+        <v>147</v>
+      </c>
+      <c r="V284" t="n">
+        <v>28</v>
+      </c>
+      <c r="W284" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="285">
@@ -20925,8 +23541,17 @@
       </c>
       <c r="T285" t="inlineStr">
         <is>
-          <t>desordir asignacion trabajo expocisión programacion planear cosa poar tiempo generar confusion desorden desordir asignacion recepcion trabajo</t>
-        </is>
+          <t>desordir en el asignacion de trabajo y expocisión y en el programacion de el mismo planear mucho cosa poaro mucho poco tiempo él que generar confusion y desorden desordir en el asignacion y recepcion de trabajo</t>
+        </is>
+      </c>
+      <c r="U285" t="n">
+        <v>218</v>
+      </c>
+      <c r="V285" t="n">
+        <v>36</v>
+      </c>
+      <c r="W285" t="n">
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="286">
@@ -20997,8 +23622,17 @@
       </c>
       <c r="T286" t="inlineStr">
         <is>
-          <t>considerar tener conocimiento asignatura profesora planear demasiado actividad observar cantidad tiempo poder gastar desorganizacion terrible</t>
-        </is>
+          <t>considerar que por mi parte no tener uno buen conocimiento en este asignatura debido a que el profesora planear demasiado actividad y no observar el cantidad de tiempo que yo poder gastar haber uno desorganización terrible</t>
+        </is>
+      </c>
+      <c r="U286" t="n">
+        <v>223</v>
+      </c>
+      <c r="V286" t="n">
+        <v>36</v>
+      </c>
+      <c r="W286" t="n">
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="287">
@@ -21056,7 +23690,7 @@
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sería bueno que se organizará mejor </t>
+          <t>Sería bueno que se organizará mejor</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -21069,8 +23703,17 @@
       </c>
       <c r="T287" t="inlineStr">
         <is>
-          <t>seriar organizar</t>
-        </is>
+          <t>ser bueno que él organizar mejor</t>
+        </is>
+      </c>
+      <c r="U287" t="n">
+        <v>35</v>
+      </c>
+      <c r="V287" t="n">
+        <v>6</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -21128,7 +23771,7 @@
       </c>
       <c r="Q288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Muy buena docente, es muy abierta a nuevas opiniones. Aprendí mucho </t>
+          <t>Muy buena docente, es muy abierta a nuevas opiniones. Aprendí mucho</t>
         </is>
       </c>
       <c r="R288" t="inlineStr">
@@ -21141,8 +23784,17 @@
       </c>
       <c r="T288" t="inlineStr">
         <is>
-          <t>docente abierto opinión aprendi</t>
-        </is>
+          <t>mucho buen docente ser mucho abierto a nuevo opinión aprender mucho</t>
+        </is>
+      </c>
+      <c r="U288" t="n">
+        <v>67</v>
+      </c>
+      <c r="V288" t="n">
+        <v>11</v>
+      </c>
+      <c r="W288" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="289">
@@ -21213,8 +23865,17 @@
       </c>
       <c r="T289" t="inlineStr">
         <is>
-          <t>correcto docente ves explicar tema obvio mandir investigar él querer aprender estudiar libro google universidad</t>
-        </is>
+          <t>no yo parecer correcto que el docente en ves de explicar el tema que obvio no saber yo mandir a investigar él si ser ese el manera como querer aprender pues estudiar con libro y google no en uno universidad</t>
+        </is>
+      </c>
+      <c r="U289" t="n">
+        <v>218</v>
+      </c>
+      <c r="V289" t="n">
+        <v>39</v>
+      </c>
+      <c r="W289" t="n">
+        <v>0.825</v>
       </c>
     </row>
     <row r="290">
@@ -21288,6 +23949,15 @@
           <t>excelente maestro</t>
         </is>
       </c>
+      <c r="U290" t="n">
+        <v>17</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -21344,7 +24014,7 @@
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t xml:space="preserve">El maestro faltó a una clase </t>
+          <t>El maestro faltó a una clase</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -21357,8 +24027,17 @@
       </c>
       <c r="T291" t="inlineStr">
         <is>
-          <t>maestro falto clase</t>
-        </is>
+          <t>el maestro faltar a uno clase</t>
+        </is>
+      </c>
+      <c r="U291" t="n">
+        <v>28</v>
+      </c>
+      <c r="V291" t="n">
+        <v>6</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -21429,8 +24108,17 @@
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>espacio enriquecedor contrario ver interes docente clase clase preparado docente dar formar docente</t>
-        </is>
+          <t>el espacio poder haber ser mucho enriquecedor al contrario no él ver el interés del docente por realizar el clase además que ser claro que el poco clase no dar preparado uno docente que no él dar cuenta que estar formar docente</t>
+        </is>
+      </c>
+      <c r="U292" t="n">
+        <v>240</v>
+      </c>
+      <c r="V292" t="n">
+        <v>42</v>
+      </c>
+      <c r="W292" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="293">
@@ -21501,8 +24189,17 @@
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>sesión basar exposicion tema asignado estudiante mes profesora breve intervención tema</t>
-        </is>
+          <t>todo el sesión él basar en el exposición de tema asignado a yo el estudiante cada mes el profesora hacer breve intervención de el nuevo tema</t>
+        </is>
+      </c>
+      <c r="U293" t="n">
+        <v>164</v>
+      </c>
+      <c r="V293" t="n">
+        <v>26</v>
+      </c>
+      <c r="W293" t="n">
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="294">
@@ -21560,7 +24257,7 @@
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leer de páginas de Internet y contar historias personales no es dar una clase. </t>
+          <t>Leer de páginas de Internet y contar historias personales no es dar una clase.</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -21573,8 +24270,17 @@
       </c>
       <c r="T294" t="inlineStr">
         <is>
-          <t>leer pagina internet contar historia personal clase</t>
-        </is>
+          <t>leer de página de internet y contar historia personal no ser dar uno clase</t>
+        </is>
+      </c>
+      <c r="U294" t="n">
+        <v>78</v>
+      </c>
+      <c r="V294" t="n">
+        <v>14</v>
+      </c>
+      <c r="W294" t="n">
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="295">
@@ -21645,8 +24351,17 @@
       </c>
       <c r="T295" t="inlineStr">
         <is>
-          <t>profesora atender retroalimentacion estudiante grosero momento dirigir él sacar diapositiva internet oportunidad perteneciar persona</t>
-        </is>
+          <t>el profesora no atender a el retroalimentación de su estudiante y ser grosero al momento de dirigir él a el mismo sacar su diapositiva de internet y decir que ser de él cuando en varios oportunidad él pertenecer a otro persona</t>
+        </is>
+      </c>
+      <c r="U295" t="n">
+        <v>238</v>
+      </c>
+      <c r="V295" t="n">
+        <v>40</v>
+      </c>
+      <c r="W295" t="n">
+        <v>0.7073170731707317</v>
       </c>
     </row>
     <row r="296">
@@ -21704,7 +24419,7 @@
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es una excelente maestra, definitivamente es un modelo a seguir como futura docente, considero que es un poco estricta en algunas cosas, sin embargo no es una debilidad, es mas una fortaleza para ser excelentes docentes.  </t>
+          <t>Es una excelente maestra, definitivamente es un modelo a seguir como futura docente, considero que es un poco estricta en algunas cosas, sin embargo no es una debilidad, es mas una fortaleza para ser excelentes docentes.</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -21717,8 +24432,17 @@
       </c>
       <c r="T296" t="inlineStr">
         <is>
-          <t>excelente maestra definitivamente modelo seguir futura docente considero estricto cosa debilidad fortaleza excelente docente</t>
-        </is>
+          <t>ser uno excelente maestra definitivamente ser uno modelo a seguir como futura docente considerar que ser uno poco estricto en alguno cosa sin embargo no ser uno debilidad ser mas uno fortaleza para ser excelente docente</t>
+        </is>
+      </c>
+      <c r="U296" t="n">
+        <v>220</v>
+      </c>
+      <c r="V296" t="n">
+        <v>36</v>
+      </c>
+      <c r="W296" t="n">
+        <v>0.6944444444444444</v>
       </c>
     </row>
     <row r="297">
@@ -21789,8 +24513,17 @@
       </c>
       <c r="T297" t="inlineStr">
         <is>
-          <t>decente problema comunicacion gravesno escucharno comprender problematica rodear estudientesactitud falta respetoen finno pense profesora pedagogico tener tipo comportam</t>
-        </is>
+          <t>ser uno decente que tener mucho problema de comunicacion grave no saber escuchar no comprender el problematica que rodear a el estudient actitud falta de respeto en fin no pense que uno profesora de el pedagogica tener ese tipo de comportam</t>
+        </is>
+      </c>
+      <c r="U297" t="n">
+        <v>250</v>
+      </c>
+      <c r="V297" t="n">
+        <v>36</v>
+      </c>
+      <c r="W297" t="n">
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="298">
@@ -21861,8 +24594,17 @@
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>docente dejar hablar razon parcial colocar tema ver oportunidad falla conexion llegar clase siquiera permitir grabar explicación</t>
-        </is>
+          <t>el docente no él dejar hablar siempre tener el razón en el parcial colocar tema que no él haber ver él tener el oportunidad de tener falla en el conexion y llegar tarde a el clase yo no ni siquiera permitir grabar el explicación</t>
+        </is>
+      </c>
+      <c r="U298" t="n">
+        <v>248</v>
+      </c>
+      <c r="V298" t="n">
+        <v>44</v>
+      </c>
+      <c r="W298" t="n">
+        <v>0.7045454545454546</v>
       </c>
     </row>
     <row r="299">
@@ -21920,7 +24662,7 @@
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t xml:space="preserve">falta enfocarlo un poco mas hacia lo ambiental, </t>
+          <t>falta enfocarlo un poco mas hacia lo ambiental,</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
@@ -21933,8 +24675,17 @@
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>faltar enfocar él ambiental</t>
-        </is>
+          <t>faltar enfocar él uno poco mas hacia él ambiental</t>
+        </is>
+      </c>
+      <c r="U299" t="n">
+        <v>47</v>
+      </c>
+      <c r="V299" t="n">
+        <v>8</v>
+      </c>
+      <c r="W299" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="300">
@@ -21992,7 +24743,7 @@
       </c>
       <c r="Q300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay que escuchar más a los estudiantes y entender que un error es fácilmente cometido y si como docente no se tiene la paciencia para orientar, nada que hacer. Mejorar metodología y maneras de calificar. </t>
+          <t>Hay que escuchar más a los estudiantes y entender que un error es fácilmente cometido y si como docente no se tiene la paciencia para orientar, nada que hacer. Mejorar metodología y maneras de calificar.</t>
         </is>
       </c>
       <c r="R300" t="inlineStr">
@@ -22005,8 +24756,17 @@
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>escuchar estudiante entender error facilmente cometer docente paciencia orientar mejorar metodologia manera calificar</t>
-        </is>
+          <t>haber que escuchar más a el estudiante y entender que uno error ser fácilmente cometer y si como docente no él tener el paciencia para orientar nada que hacer mejorar metodología y manera de calificar</t>
+        </is>
+      </c>
+      <c r="U300" t="n">
+        <v>203</v>
+      </c>
+      <c r="V300" t="n">
+        <v>35</v>
+      </c>
+      <c r="W300" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="301">
@@ -22077,8 +24837,17 @@
       </c>
       <c r="T301" t="inlineStr">
         <is>
-          <t>excelente docente areas</t>
-        </is>
+          <t>excelente docente en todo el área</t>
+        </is>
+      </c>
+      <c r="U301" t="n">
+        <v>35</v>
+      </c>
+      <c r="V301" t="n">
+        <v>6</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -22136,7 +24905,7 @@
       </c>
       <c r="Q302" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mucho tema y poco tiempo en la segunda evaluación, pero debo resaltar el acompañamiento pertinente de la docente frente a dudas generadas en el transcurso del semestre </t>
+          <t>Mucho tema y poco tiempo en la segunda evaluación, pero debo resaltar el acompañamiento pertinente de la docente frente a dudas generadas en el transcurso del semestre</t>
         </is>
       </c>
       <c r="R302" t="inlineStr">
@@ -22149,8 +24918,17 @@
       </c>
       <c r="T302" t="inlineStr">
         <is>
-          <t>tema tiempo evaluacion deber resaltar acompanamiento pertinente docente frente duda generado transcurso semestre</t>
-        </is>
+          <t>mucho tema y poco tiempo en el segundo evaluación pero deber resaltar el acompañamiento pertinente de el docente frente a duda generado en el transcurso del semestre</t>
+        </is>
+      </c>
+      <c r="U302" t="n">
+        <v>167</v>
+      </c>
+      <c r="V302" t="n">
+        <v>27</v>
+      </c>
+      <c r="W302" t="n">
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="303">
@@ -22221,8 +24999,17 @@
       </c>
       <c r="T303" t="inlineStr">
         <is>
-          <t>profesora grosero</t>
-        </is>
+          <t>el profesora ser uno tanto grosero</t>
+        </is>
+      </c>
+      <c r="U303" t="n">
+        <v>32</v>
+      </c>
+      <c r="V303" t="n">
+        <v>6</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -22280,7 +25067,7 @@
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propone muchos temas en poco tiempo </t>
+          <t>Propone muchos temas en poco tiempo</t>
         </is>
       </c>
       <c r="R304" t="inlineStr">
@@ -22293,8 +25080,17 @@
       </c>
       <c r="T304" t="inlineStr">
         <is>
-          <t>proponer tema tiempo</t>
-        </is>
+          <t>proponer mucho tema en poco tiempo</t>
+        </is>
+      </c>
+      <c r="U304" t="n">
+        <v>35</v>
+      </c>
+      <c r="V304" t="n">
+        <v>6</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -22365,8 +25161,17 @@
       </c>
       <c r="T305" t="inlineStr">
         <is>
-          <t>manejar tematica seminario poseer versatilidad estrategia didactica manejar clase estilo tedioso</t>
-        </is>
+          <t>manejar bien el temática del seminario pero no poseer versatilidad en estrategia didáctica manejar todo el clase con uno estilo mucho tedioso</t>
+        </is>
+      </c>
+      <c r="U305" t="n">
+        <v>138</v>
+      </c>
+      <c r="V305" t="n">
+        <v>22</v>
+      </c>
+      <c r="W305" t="n">
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="306">
@@ -22437,8 +25242,17 @@
       </c>
       <c r="T306" t="inlineStr">
         <is>
-          <t>excelente profe monotonar</t>
-        </is>
+          <t>excelente profe algo monótono</t>
+        </is>
+      </c>
+      <c r="U306" t="n">
+        <v>30</v>
+      </c>
+      <c r="V306" t="n">
+        <v>4</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -22509,8 +25323,17 @@
       </c>
       <c r="T307" t="inlineStr">
         <is>
-          <t>cambio comparacion semestre cambio exito excelente profesora</t>
-        </is>
+          <t>haber uno gran cambio a comparación del semestre pasado y ese cambio ser todo uno éxito excelente profesora</t>
+        </is>
+      </c>
+      <c r="U307" t="n">
+        <v>108</v>
+      </c>
+      <c r="V307" t="n">
+        <v>18</v>
+      </c>
+      <c r="W307" t="n">
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="308">
@@ -22581,8 +25404,17 @@
       </c>
       <c r="T308" t="inlineStr">
         <is>
-          <t>cordial buscar metodo ensenanza</t>
-        </is>
+          <t>ser más cordial y buscar diferente método de enseñanza</t>
+        </is>
+      </c>
+      <c r="U308" t="n">
+        <v>56</v>
+      </c>
+      <c r="V308" t="n">
+        <v>9</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -22640,7 +25472,7 @@
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una buena labor docente, de manera simplificada, debe contar con un componente disciplinar y didáctico, no basta con ser un experto en el tema, también hay que saber cómo enseñar adecuadamente, esto incluye una sana relación docente estudiante </t>
+          <t>Una buena labor docente, de manera simplificada, debe contar con un componente disciplinar y didáctico, no basta con ser un experto en el tema, también hay que saber cómo enseñar adecuadamente, esto incluye una sana relación docente estudiante</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -22653,8 +25485,17 @@
       </c>
       <c r="T309" t="inlineStr">
         <is>
-          <t>labor docente simplificado contar componente disciplinar didactico bastar experto tema ensenar adecuadamente incluir sano relacion docente estudiante</t>
-        </is>
+          <t>uno buen labor docente de manera simplificado deber contar con uno componente disciplinar y didáctico no bastar con ser uno experto en el tema también haber que saber cómo enseñar adecuadamente este incluir uno sano relación docente estudiante</t>
+        </is>
+      </c>
+      <c r="U309" t="n">
+        <v>243</v>
+      </c>
+      <c r="V309" t="n">
+        <v>38</v>
+      </c>
+      <c r="W309" t="n">
+        <v>0.868421052631579</v>
       </c>
     </row>
     <row r="310">
@@ -22723,7 +25564,20 @@
       <c r="S310" t="n">
         <v>48.2</v>
       </c>
-      <c r="T310" t="inlineStr"/>
+      <c r="T310" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U310" t="n">
+        <v>7</v>
+      </c>
+      <c r="V310" t="n">
+        <v>1</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -22793,8 +25647,17 @@
       </c>
       <c r="T311" t="inlineStr">
         <is>
-          <t>utilizar forma ensenanza limitar estudant</t>
-        </is>
+          <t>utilizar otro forma de enseñanza que no limitar a el estudant</t>
+        </is>
+      </c>
+      <c r="U311" t="n">
+        <v>67</v>
+      </c>
+      <c r="V311" t="n">
+        <v>11</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -22865,8 +25728,17 @@
       </c>
       <c r="T312" t="inlineStr">
         <is>
-          <t>mejorar metodologia clase monotona</t>
-        </is>
+          <t>mejorar metodología clase monótono</t>
+        </is>
+      </c>
+      <c r="U312" t="n">
+        <v>37</v>
+      </c>
+      <c r="V312" t="n">
+        <v>4</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -22924,7 +25796,7 @@
       </c>
       <c r="Q313" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente maestra, abordó de la mejor manera las temáticas e hizo del curso, un curso muy interactivo </t>
+          <t>Excelente maestra, abordó de la mejor manera las temáticas e hizo del curso, un curso muy interactivo</t>
         </is>
       </c>
       <c r="R313" t="inlineStr">
@@ -22937,8 +25809,17 @@
       </c>
       <c r="T313" t="inlineStr">
         <is>
-          <t>excelente maestra abordo tematica curso curso interactivo</t>
-        </is>
+          <t>excelente maestra abordar de el mejor manera el temática e hacer del curso uno curso mucho interactivo</t>
+        </is>
+      </c>
+      <c r="U313" t="n">
+        <v>101</v>
+      </c>
+      <c r="V313" t="n">
+        <v>17</v>
+      </c>
+      <c r="W313" t="n">
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="314">
@@ -22996,12 +25877,12 @@
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente docente, buenas estrategias didácticas </t>
+          <t>Excelente docente, buenas estrategias didácticas</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>pt</t>
         </is>
       </c>
       <c r="S314" t="n">
@@ -23009,8 +25890,17 @@
       </c>
       <c r="T314" t="inlineStr">
         <is>
-          <t>excelente docente estrategia didactica</t>
-        </is>
+          <t>excelente docente buena estrategia didáctica</t>
+        </is>
+      </c>
+      <c r="U314" t="n">
+        <v>48</v>
+      </c>
+      <c r="V314" t="n">
+        <v>5</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -23068,7 +25958,7 @@
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t xml:space="preserve">ninguna </t>
+          <t>ninguna</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -23079,7 +25969,20 @@
       <c r="S315" t="n">
         <v>47.9</v>
       </c>
-      <c r="T315" t="inlineStr"/>
+      <c r="T315" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U315" t="n">
+        <v>7</v>
+      </c>
+      <c r="V315" t="n">
+        <v>1</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -23136,7 +26039,7 @@
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente maestro. </t>
+          <t>Excelente maestro.</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -23151,6 +26054,15 @@
         <is>
           <t>excelente maestro</t>
         </is>
+      </c>
+      <c r="U316" t="n">
+        <v>18</v>
+      </c>
+      <c r="V316" t="n">
+        <v>2</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -23208,7 +26120,7 @@
       </c>
       <c r="Q317" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podría replantear su metodología de clase. A veces falta orden e instrucciones claras en cuanto a los trabajos que pide. </t>
+          <t>Podría replantear su metodología de clase. A veces falta orden e instrucciones claras en cuanto a los trabajos que pide.</t>
         </is>
       </c>
       <c r="R317" t="inlineStr">
@@ -23221,8 +26133,17 @@
       </c>
       <c r="T317" t="inlineStr">
         <is>
-          <t>replantear metodologia clase falta orden instrucción claro trabajo pedir</t>
-        </is>
+          <t>poder replantear su metodología de clase a veces faltar orden e instrucción claro en cuanto a el trabajo que pedir</t>
+        </is>
+      </c>
+      <c r="U317" t="n">
+        <v>120</v>
+      </c>
+      <c r="V317" t="n">
+        <v>20</v>
+      </c>
+      <c r="W317" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="318">
@@ -23293,8 +26214,17 @@
       </c>
       <c r="T318" t="inlineStr">
         <is>
-          <t>sesión asincronica deberiar seguido</t>
-        </is>
+          <t>el sesión asincrónica no deber ser tanto seguido</t>
+        </is>
+      </c>
+      <c r="U318" t="n">
+        <v>54</v>
+      </c>
+      <c r="V318" t="n">
+        <v>8</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -23352,7 +26282,7 @@
       </c>
       <c r="Q319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente profesor , muy buena su dinamica y didactica </t>
+          <t>Excelente profesor , muy buena su dinamica y didactica</t>
         </is>
       </c>
       <c r="R319" t="inlineStr">
@@ -23365,8 +26295,17 @@
       </c>
       <c r="T319" t="inlineStr">
         <is>
-          <t>excelente profesor dinamica didactico</t>
-        </is>
+          <t>excelente profesor mucho buen su dinamica y didactico</t>
+        </is>
+      </c>
+      <c r="U319" t="n">
+        <v>54</v>
+      </c>
+      <c r="V319" t="n">
+        <v>9</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -23424,7 +26363,7 @@
       </c>
       <c r="Q320" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente profesor , explica muy bien , tiene varias dinamicas y hace que clase sea interesante </t>
+          <t>Excelente profesor , explica muy bien , tiene varias dinamicas y hace que clase sea interesante</t>
         </is>
       </c>
       <c r="R320" t="inlineStr">
@@ -23437,8 +26376,17 @@
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>excelente profesor explicar dinamica clase interesante</t>
-        </is>
+          <t>excelente profesor explicar mucho bien tener varios dinamica y hacer que clase ser interesante</t>
+        </is>
+      </c>
+      <c r="U320" t="n">
+        <v>95</v>
+      </c>
+      <c r="V320" t="n">
+        <v>16</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -23507,7 +26455,20 @@
       <c r="S321" t="n">
         <v>49</v>
       </c>
-      <c r="T321" t="inlineStr"/>
+      <c r="T321" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U321" t="n">
+        <v>7</v>
+      </c>
+      <c r="V321" t="n">
+        <v>1</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -23575,7 +26536,20 @@
       <c r="S322" t="n">
         <v>46.5</v>
       </c>
-      <c r="T322" t="inlineStr"/>
+      <c r="T322" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U322" t="n">
+        <v>7</v>
+      </c>
+      <c r="V322" t="n">
+        <v>1</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -23648,6 +26622,15 @@
           <t>excelente maestro</t>
         </is>
       </c>
+      <c r="U323" t="n">
+        <v>17</v>
+      </c>
+      <c r="V323" t="n">
+        <v>2</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -23717,8 +26700,17 @@
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>implementar metodologia</t>
-        </is>
+          <t>poder implementar mas metodología</t>
+        </is>
+      </c>
+      <c r="U324" t="n">
+        <v>35</v>
+      </c>
+      <c r="V324" t="n">
+        <v>4</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -23776,7 +26768,7 @@
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siento que sus clases deben ser un poco más dinámicas. Además de ello, tratar de resolver ejercicios más complejos en clase, porque a veces el estudiante queda con la duda de un ejercicio fuerte que normalmente pone en los trabajos y parciales </t>
+          <t>Siento que sus clases deben ser un poco más dinámicas. Además de ello, tratar de resolver ejercicios más complejos en clase, porque a veces el estudiante queda con la duda de un ejercicio fuerte que normalmente pone en los trabajos y parciales</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -23789,8 +26781,17 @@
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>sentir clase dinamica tratar resolver ejercicio complejo clase estudiante quedar duda ejercicio fuerte normalmente poner trabajo parcial</t>
-        </is>
+          <t>sentir que su clase deber ser uno poco más dinámico además de él tratar de resolver ejercicio más complejo en clase porque a veces el estudiante quedar con el duda de uno ejercicio fuerte que normalmente poner en el trabajo y parcial</t>
+        </is>
+      </c>
+      <c r="U325" t="n">
+        <v>243</v>
+      </c>
+      <c r="V325" t="n">
+        <v>42</v>
+      </c>
+      <c r="W325" t="n">
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="326">
@@ -23861,8 +26862,17 @@
       </c>
       <c r="T326" t="inlineStr">
         <is>
-          <t>deberio tiempo hora esponer tema tomar diapositiva alguien estudiante concentrar yo escribir atender leer</t>
-        </is>
+          <t>deberiar dar mas tiempo a el hora de esponer el tema debido a que como toma el diapositiva que ya haber hacer alguien el estudiante no poder concentrar yo en escribir y atender mientras el él leer</t>
+        </is>
+      </c>
+      <c r="U326" t="n">
+        <v>202</v>
+      </c>
+      <c r="V326" t="n">
+        <v>36</v>
+      </c>
+      <c r="W326" t="n">
+        <v>0.8378378378378378</v>
       </c>
     </row>
     <row r="327">
@@ -23933,8 +26943,17 @@
       </c>
       <c r="T327" t="inlineStr">
         <is>
-          <t>falta innovacion preparacion clase</t>
-        </is>
+          <t>faltar innovación y preparación de el clase</t>
+        </is>
+      </c>
+      <c r="U327" t="n">
+        <v>44</v>
+      </c>
+      <c r="V327" t="n">
+        <v>7</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -24005,8 +27024,17 @@
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>profe</t>
-        </is>
+          <t>bien profe</t>
+        </is>
+      </c>
+      <c r="U328" t="n">
+        <v>10</v>
+      </c>
+      <c r="V328" t="n">
+        <v>2</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -24077,8 +27105,17 @@
       </c>
       <c r="T329" t="inlineStr">
         <is>
-          <t>materia considero ampliar practica tener profesor repitio bastante cosa educacion sociedad genero avance practico nombre materia indicar</t>
-        </is>
+          <t>en este materia considerar que él deber ampliar uno poco mas hacia el practica tener en cuenta que el profesor repitio bastante cosa de educación y sociedad no él genero uno avance en algo mas practico como el nombre de el materia él indicar</t>
+        </is>
+      </c>
+      <c r="U329" t="n">
+        <v>244</v>
+      </c>
+      <c r="V329" t="n">
+        <v>44</v>
+      </c>
+      <c r="W329" t="n">
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="330">
@@ -24147,7 +27184,20 @@
       <c r="S330" t="n">
         <v>48.6</v>
       </c>
-      <c r="T330" t="inlineStr"/>
+      <c r="T330" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U330" t="n">
+        <v>7</v>
+      </c>
+      <c r="V330" t="n">
+        <v>1</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -24215,7 +27265,20 @@
       <c r="S331" t="n">
         <v>48.2</v>
       </c>
-      <c r="T331" t="inlineStr"/>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U331" t="n">
+        <v>7</v>
+      </c>
+      <c r="V331" t="n">
+        <v>1</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -24272,7 +27335,7 @@
       </c>
       <c r="Q332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excelente maestra </t>
+          <t>Excelente maestra</t>
         </is>
       </c>
       <c r="R332" t="inlineStr">
@@ -24287,6 +27350,15 @@
         <is>
           <t>excelente maestra</t>
         </is>
+      </c>
+      <c r="U332" t="n">
+        <v>17</v>
+      </c>
+      <c r="V332" t="n">
+        <v>2</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -24360,6 +27432,15 @@
           <t>excelente maestre</t>
         </is>
       </c>
+      <c r="U333" t="n">
+        <v>18</v>
+      </c>
+      <c r="V333" t="n">
+        <v>2</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -24416,7 +27497,7 @@
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>Excelente maestra, de las mejores del departamento, solo mejorar  el aspecto de laboratorios para aprender más</t>
+          <t>Excelente maestra, de las mejores del departamento, solo mejorar el aspecto de laboratorios para aprender más</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -24429,8 +27510,17 @@
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>excelente maestra mejor departamento mejorar aspecto laboratorio aprender</t>
-        </is>
+          <t>excelente maestra de el mejor del departamento solo mejorar el aspecto de laboratorio para aprender más</t>
+        </is>
+      </c>
+      <c r="U334" t="n">
+        <v>109</v>
+      </c>
+      <c r="V334" t="n">
+        <v>16</v>
+      </c>
+      <c r="W334" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="335">
@@ -24488,7 +27578,7 @@
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t xml:space="preserve">La clase es muy dinámica, se entiende muy bien lo que la profe explica  nos motiva a ser excelentes docentes y a ser buenas personas </t>
+          <t>La clase es muy dinámica, se entiende muy bien lo que la profe explica nos motiva a ser excelentes docentes y a ser buenas personas</t>
         </is>
       </c>
       <c r="R335" t="inlineStr">
@@ -24501,8 +27591,17 @@
       </c>
       <c r="T335" t="inlineStr">
         <is>
-          <t>clase dinamico entender profe explicar motivar excelente docente persona</t>
-        </is>
+          <t>el clase ser mucho dinámico él entender mucho bien él que el profe explicar yo motivar a ser excelente docente y a ser buena persona</t>
+        </is>
+      </c>
+      <c r="U335" t="n">
+        <v>131</v>
+      </c>
+      <c r="V335" t="n">
+        <v>25</v>
+      </c>
+      <c r="W335" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="336">
@@ -24573,8 +27672,17 @@
       </c>
       <c r="T336" t="inlineStr">
         <is>
-          <t>docente respetuoso amable excelente persona profesora</t>
-        </is>
+          <t>gran docente mucho respetuoso y amable ser uno excelente persona y profesora</t>
+        </is>
+      </c>
+      <c r="U336" t="n">
+        <v>75</v>
+      </c>
+      <c r="V336" t="n">
+        <v>12</v>
+      </c>
+      <c r="W336" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="337">
@@ -24632,7 +27740,7 @@
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t xml:space="preserve">la docente genera amor y pasión sobre la pedagogía, es muy organizada </t>
+          <t>la docente genera amor y pasión sobre la pedagogía, es muy organizada</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -24645,8 +27753,17 @@
       </c>
       <c r="T337" t="inlineStr">
         <is>
-          <t>docente generar amor pasion pedagogia organizado</t>
-        </is>
+          <t>el docente generar amor y pasión sobre el pedagogía ser mucho organizado</t>
+        </is>
+      </c>
+      <c r="U337" t="n">
+        <v>69</v>
+      </c>
+      <c r="V337" t="n">
+        <v>12</v>
+      </c>
+      <c r="W337" t="n">
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="338">
@@ -24704,7 +27821,7 @@
       </c>
       <c r="Q338" t="inlineStr">
         <is>
-          <t xml:space="preserve">La profesora no asistió a tres sesiones de clase pero hubo una excusa en cuanto a esas faltas y se recuperaron esas horas de clase, excelente maestra </t>
+          <t>La profesora no asistió a tres sesiones de clase pero hubo una excusa en cuanto a esas faltas y se recuperaron esas horas de clase, excelente maestra</t>
         </is>
       </c>
       <c r="R338" t="inlineStr">
@@ -24717,8 +27834,17 @@
       </c>
       <c r="T338" t="inlineStr">
         <is>
-          <t>profesora asistio sesión clase excusa falta recuperar hora clase excelente maestra</t>
-        </is>
+          <t>el profesora no asistir a tres sesión de clase pero haber uno excusa en cuanto a ese falta y él recuperar ese hora de clase excelente maestra</t>
+        </is>
+      </c>
+      <c r="U338" t="n">
+        <v>149</v>
+      </c>
+      <c r="V338" t="n">
+        <v>27</v>
+      </c>
+      <c r="W338" t="n">
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="339">
@@ -24789,8 +27915,17 @@
       </c>
       <c r="T339" t="inlineStr">
         <is>
-          <t>profesora comprometido responsable</t>
-        </is>
+          <t>ser uno profesora mucho comprometido y responsable</t>
+        </is>
+      </c>
+      <c r="U339" t="n">
+        <v>48</v>
+      </c>
+      <c r="V339" t="n">
+        <v>7</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -24861,8 +27996,17 @@
       </c>
       <c r="T340" t="inlineStr">
         <is>
-          <t>transmicion area manejo tiempo participacion frente estudiante</t>
-        </is>
+          <t>buen transmición de su área buen manejo de tiempo y buen participación frente a el estudiante</t>
+        </is>
+      </c>
+      <c r="U340" t="n">
+        <v>100</v>
+      </c>
+      <c r="V340" t="n">
+        <v>17</v>
+      </c>
+      <c r="W340" t="n">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="341">
@@ -24931,7 +28075,20 @@
       <c r="S341" t="n">
         <v>46</v>
       </c>
-      <c r="T341" t="inlineStr"/>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>ninguno</t>
+        </is>
+      </c>
+      <c r="U341" t="n">
+        <v>7</v>
+      </c>
+      <c r="V341" t="n">
+        <v>1</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -25001,8 +28158,17 @@
       </c>
       <c r="T342" t="inlineStr">
         <is>
-          <t>profesor</t>
-        </is>
+          <t>mucho buen profesor</t>
+        </is>
+      </c>
+      <c r="U342" t="n">
+        <v>17</v>
+      </c>
+      <c r="V342" t="n">
+        <v>3</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -25060,7 +28226,7 @@
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Falta de empatia con los recursos que los estudiantes aveces no tienen, sarcástico al momento de responder </t>
+          <t>Falta de empatia con los recursos que los estudiantes aveces no tienen, sarcástico al momento de responder</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -25073,8 +28239,17 @@
       </c>
       <c r="T343" t="inlineStr">
         <is>
-          <t>falta empatia recurso estudiante avez sarcastico momento responder</t>
-        </is>
+          <t>falta de empatia con el recurso que el estudiante aveces no tener sarcástico al momento de responder</t>
+        </is>
+      </c>
+      <c r="U343" t="n">
+        <v>106</v>
+      </c>
+      <c r="V343" t="n">
+        <v>17</v>
+      </c>
+      <c r="W343" t="n">
+        <v>0.8823529411764706</v>
       </c>
     </row>
   </sheetData>
